--- a/luban/卡牌表.xlsx
+++ b/luban/卡牌表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView windowWidth="27945" windowHeight="12375" tabRatio="283" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="卡牌" sheetId="2" r:id="rId1"/>
@@ -60,14 +60,14 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">1、通用卡
-2、拓展流派
+2、交通流派
 3、拓展流派
 4、拓展流派
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="N3" authorId="0">
+    <comment ref="O3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -85,7 +85,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O3" authorId="0">
+    <comment ref="P3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -102,7 +102,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AI3" authorId="0">
+    <comment ref="AJ3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -112,6 +112,46 @@
           </rPr>
           <t>true指向型，则卡牌效果仅针对使用的目标城市
 false非指向型，卡牌为全局效果</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BN3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>单位
+次数每十秒</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BO3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>从当前城市向随机数量的其他城市起飞
+-1则向所有有机场的城市起飞</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BP3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">从随机数量的其他城市向当前城市起飞
+-1则从所有有机场的城市起飞
+</t>
         </r>
       </text>
     </comment>
@@ -183,7 +223,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="368">
   <si>
     <t>##var</t>
   </si>
@@ -200,6 +240,9 @@
     <t>cardSect</t>
   </si>
   <si>
+    <t>icon</t>
+  </si>
+  <si>
     <t>##effectDesc</t>
   </si>
   <si>
@@ -359,6 +402,21 @@
     <t>belivTransProp</t>
   </si>
   <si>
+    <t>belivConvByPla</t>
+  </si>
+  <si>
+    <t>belivConvByPlaProp</t>
+  </si>
+  <si>
+    <t>planeFreq</t>
+  </si>
+  <si>
+    <t>planeFlyNum</t>
+  </si>
+  <si>
+    <t>planeLandNum</t>
+  </si>
+  <si>
     <t>##type</t>
   </si>
   <si>
@@ -386,7 +444,10 @@
     <t>卡牌类型</t>
   </si>
   <si>
-    <t>教派</t>
+    <t>流派</t>
+  </si>
+  <si>
+    <t>卡面</t>
   </si>
   <si>
     <t>效果描述</t>
@@ -557,19 +618,55 @@
     <t>转移百分比信徒</t>
   </si>
   <si>
+    <t>交通流效果</t>
+  </si>
+  <si>
+    <t>飞机转化信徒</t>
+  </si>
+  <si>
+    <t>飞机百分比转化信徒</t>
+  </si>
+  <si>
+    <t>飞机频率</t>
+  </si>
+  <si>
+    <t>起飞飞机数量</t>
+  </si>
+  <si>
+    <t>落地飞机数量</t>
+  </si>
+  <si>
     <t>抽一张牌</t>
   </si>
   <si>
-    <t>同时获得一定信仰</t>
+    <t>assets/icon/card1</t>
+  </si>
+  <si>
+    <t>抽一张牌,同时获得一定信仰</t>
   </si>
   <si>
     <t>抽两张牌</t>
   </si>
   <si>
+    <t>assets/icon/card2</t>
+  </si>
+  <si>
     <t>抽三张牌</t>
   </si>
   <si>
-    <t>之后随机丢弃一张</t>
+    <t>assets/icon/card3</t>
+  </si>
+  <si>
+    <t>抽三张牌,之后随机丢弃一张</t>
+  </si>
+  <si>
+    <t>宗教party</t>
+  </si>
+  <si>
+    <t>assets/icon/card4</t>
+  </si>
+  <si>
+    <t>每个城市往当前城市飞一架飞机</t>
   </si>
   <si>
     <t>优先思考卡牌的条件字段有哪些</t>
@@ -632,13 +729,16 @@
     <t>人口(w人)</t>
   </si>
   <si>
+    <t>优化</t>
+  </si>
+  <si>
     <t>场地条件有</t>
   </si>
   <si>
     <t>内陆</t>
   </si>
   <si>
-    <t>场地条件和城市类型组合，可以有7x5=35种不同的城市
+    <t>场地条件和城市类型组合，可以有7x6=42种不同的城市
 比如内陆工业城市，雪山原始部落，雨林旅游城市
 城市人口不随机生成，通过配置写死，这样方便后期数值调整
 根据场地条件确定人口基数，根据城市类型确定人口系数
@@ -686,6 +786,224 @@
   </si>
   <si>
     <t>首府比较特殊，每个类型的场地只有一个首府，全球一共7个</t>
+  </si>
+  <si>
+    <t>设单局游戏时长20min</t>
+  </si>
+  <si>
+    <t>中等胜率，各方面比较均衡</t>
+  </si>
+  <si>
+    <t>散播信仰流</t>
+  </si>
+  <si>
+    <t>降低理智流</t>
+  </si>
+  <si>
+    <t>快攻流派单局时长10min</t>
+  </si>
+  <si>
+    <t>低胜率，过度依赖抽卡运气</t>
+  </si>
+  <si>
+    <t>战争流</t>
+  </si>
+  <si>
+    <t>运营流派单局时长30min</t>
+  </si>
+  <si>
+    <t>高胜率，不过度依赖抽卡运气</t>
+  </si>
+  <si>
+    <t>古神召唤流</t>
+  </si>
+  <si>
+    <t>设抽卡-读卡-分析-使用的行为循环需要5s
+标准单局20min的对局共抽取240张卡
+（快攻仅针对熟练玩家，抽卡循环会更短，先不考虑）
+标准单局需要用240张卡，把城市人口全部转化为信徒</t>
+  </si>
+  <si>
+    <t>设各地形和各城市类型都只有一个，则一共有42个城市，总人口：</t>
+  </si>
+  <si>
+    <t>设信徒转化类的卡牌占所有卡牌数量的1/4，则需要抽取张数至少：</t>
+  </si>
+  <si>
+    <t>那么平均每张卡需要转化的信徒人数大约为：</t>
+  </si>
+  <si>
+    <t>所以为了保险起见，我们单卡平均的转化人数定为300w人</t>
+  </si>
+  <si>
+    <t>对于城市人口百分比来说，总人口/城市数量可得平均城市人口：</t>
+  </si>
+  <si>
+    <t>相当于400w人的城市，每次转化300w人，转化比平均为：</t>
+  </si>
+  <si>
+    <t>鉴于单卡直接转化75%的城市人口为信徒，这个比例过于离谱，需要往下压</t>
+  </si>
+  <si>
+    <t>优化方案</t>
+  </si>
+  <si>
+    <t>1、提升转化类卡牌的数量</t>
+  </si>
+  <si>
+    <t>从1/4提升到1/3</t>
+  </si>
+  <si>
+    <t>2、熟练的玩家抽卡循环会更快速</t>
+  </si>
+  <si>
+    <t>从5s提升到4s</t>
+  </si>
+  <si>
+    <t>3、单局游戏时间延长</t>
+  </si>
+  <si>
+    <t>从20min延长到25min</t>
+  </si>
+  <si>
+    <t>标准单局需要的卡牌为375</t>
+  </si>
+  <si>
+    <t>经过优化后的单卡转化人数和比例分别为：</t>
+  </si>
+  <si>
+    <t>单卡转化人数：</t>
+  </si>
+  <si>
+    <t>单卡转化比例：</t>
+  </si>
+  <si>
+    <t>为了数值美观，我们尽量让单卡转化人数向100人靠拢</t>
+  </si>
+  <si>
+    <t>可以让总人数适当减少</t>
+  </si>
+  <si>
+    <t>1、把内陆人数从450缩减为380</t>
+  </si>
+  <si>
+    <t>2、把临海人数从500缩减为420</t>
+  </si>
+  <si>
+    <t>3、宗教系数从1.4下调至1.1</t>
+  </si>
+  <si>
+    <t>4、首府系数从2下调至1.8</t>
+  </si>
+  <si>
+    <t>此时总人口数下降至：</t>
+  </si>
+  <si>
+    <t>单卡转化人数为：</t>
+  </si>
+  <si>
+    <t>👈基本符合预期了</t>
+  </si>
+  <si>
+    <t>关于基础资源</t>
+  </si>
+  <si>
+    <t>信仰值是主要货币，用于购买不同的卡牌，有不同的方式可以获得信仰值</t>
+  </si>
+  <si>
+    <t>1、使用特殊的卡牌可以获得信仰</t>
+  </si>
+  <si>
+    <t>事件和仪式卡往往可以一次性获得一定数量的信仰</t>
+  </si>
+  <si>
+    <t>教条卡可以持续生产一定量的信仰</t>
+  </si>
+  <si>
+    <t>2、转化信徒的时候可以获得信仰</t>
+  </si>
+  <si>
+    <t>我们按照每转化1人获得1信仰来计算，通过转化信徒最多可以获得12874w的信仰，数量非常庞大</t>
+  </si>
+  <si>
+    <t>（假设我们用所有的信仰购买卡牌，平均每张卡牌费用为34w，数额太大了，所以无法按照1:1的比例进行转换）</t>
+  </si>
+  <si>
+    <t>优化→</t>
+  </si>
+  <si>
+    <t>每转化1w人获得1信仰，这样通过人口转化最多12874信仰</t>
+  </si>
+  <si>
+    <r>
+      <t>相当于</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>每张卡牌费用34</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，合理多了</t>
+    </r>
+  </si>
+  <si>
+    <t>因为还有其他获得信仰的方式，所以单卡价格999也能接受（应该是最贵的单卡了）</t>
+  </si>
+  <si>
+    <t>理智值是游戏目标，只要理智归零游戏胜利，所以一般情况理智更多是卡牌效果而不是卡牌条件</t>
+  </si>
+  <si>
+    <t>1、我方效果</t>
+  </si>
+  <si>
+    <t>事件和仪式卡往往可以一次性减少一定数量的理智</t>
+  </si>
+  <si>
+    <t>教条卡只要满足条件就可以持续降低理智</t>
+  </si>
+  <si>
+    <t>遗物卡也可以降低理智，或者恢复理智</t>
+  </si>
+  <si>
+    <t>2、敌方效果</t>
+  </si>
+  <si>
+    <t>恢复少量理智</t>
+  </si>
+  <si>
+    <t>理智上限是100</t>
+  </si>
+  <si>
+    <t>因为理智无关是否有信仰，所以信徒转化的时候不会降低理智</t>
+  </si>
+  <si>
+    <t>理智更多是出于见到了违反常理的东西，所以主要是通过卡牌效果进行减少</t>
+  </si>
+  <si>
+    <t>按照</t>
+  </si>
+  <si>
+    <t>关于流派</t>
+  </si>
+  <si>
+    <t>通用流</t>
+  </si>
+  <si>
+    <t>交通流</t>
   </si>
   <si>
     <t>relicInHand</t>
@@ -1052,8 +1370,16 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -1249,7 +1575,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.8"/>
+        <fgColor theme="0" tint="-0.15"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1261,7 +1587,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.8"/>
+        <fgColor theme="4" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1593,137 +1919,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1739,9 +2065,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1757,9 +2080,6 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1781,15 +2101,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1805,34 +2119,43 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2146,176 +2469,183 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:BI7"/>
+  <dimension ref="A1:BP7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
   <cols>
     <col min="3" max="3" width="26.125" customWidth="1"/>
-    <col min="6" max="6" width="27.875" customWidth="1"/>
-    <col min="7" max="7" width="9" style="32"/>
-    <col min="8" max="8" width="11" customWidth="1"/>
-    <col min="9" max="9" width="10.5" customWidth="1"/>
-    <col min="10" max="10" width="10.75" customWidth="1"/>
-    <col min="11" max="11" width="10.375" customWidth="1"/>
-    <col min="12" max="12" width="11.125" customWidth="1"/>
-    <col min="13" max="15" width="11.375" customWidth="1"/>
-    <col min="16" max="16" width="12.625" customWidth="1"/>
-    <col min="17" max="17" width="12.5" customWidth="1"/>
-    <col min="18" max="18" width="12.875" customWidth="1"/>
-    <col min="19" max="19" width="14" customWidth="1"/>
-    <col min="20" max="21" width="15.875" customWidth="1"/>
-    <col min="22" max="22" width="11.625" style="33" customWidth="1"/>
-    <col min="23" max="23" width="9.75" customWidth="1"/>
-    <col min="24" max="28" width="12.25" customWidth="1"/>
-    <col min="29" max="29" width="15.875" customWidth="1"/>
-    <col min="30" max="32" width="12.25" customWidth="1"/>
-    <col min="33" max="33" width="14.625" customWidth="1"/>
-    <col min="34" max="34" width="9" style="34"/>
-    <col min="35" max="35" width="14.25" customWidth="1"/>
-    <col min="37" max="37" width="11" customWidth="1"/>
-    <col min="38" max="38" width="12.375" customWidth="1"/>
-    <col min="39" max="39" width="15" customWidth="1"/>
-    <col min="40" max="40" width="10.25" customWidth="1"/>
-    <col min="41" max="41" width="13.75" customWidth="1"/>
-    <col min="42" max="42" width="15.125" customWidth="1"/>
-    <col min="43" max="43" width="17.625" customWidth="1"/>
-    <col min="44" max="44" width="10.125" customWidth="1"/>
-    <col min="45" max="45" width="10.625" customWidth="1"/>
-    <col min="46" max="46" width="14.25" customWidth="1"/>
-    <col min="47" max="47" width="15" customWidth="1"/>
-    <col min="48" max="48" width="12.75" customWidth="1"/>
-    <col min="49" max="49" width="13.25" customWidth="1"/>
-    <col min="50" max="50" width="15.5" customWidth="1"/>
-    <col min="51" max="51" width="17.625" customWidth="1"/>
-    <col min="52" max="52" width="12.125" customWidth="1"/>
-    <col min="53" max="53" width="15.625" customWidth="1"/>
-    <col min="54" max="54" width="12.625" customWidth="1"/>
-    <col min="55" max="55" width="18" customWidth="1"/>
-    <col min="56" max="56" width="13.375" customWidth="1"/>
-    <col min="57" max="57" width="15" customWidth="1"/>
-    <col min="58" max="58" width="13.25" customWidth="1"/>
-    <col min="59" max="59" width="16.625" customWidth="1"/>
-    <col min="60" max="60" width="12.375" customWidth="1"/>
-    <col min="61" max="61" width="15.125" customWidth="1"/>
+    <col min="6" max="6" width="20.25" customWidth="1"/>
+    <col min="7" max="7" width="27.875" customWidth="1"/>
+    <col min="8" max="8" width="9" style="31"/>
+    <col min="9" max="9" width="11" customWidth="1"/>
+    <col min="10" max="10" width="10.5" customWidth="1"/>
+    <col min="11" max="11" width="10.75" customWidth="1"/>
+    <col min="12" max="12" width="10.375" customWidth="1"/>
+    <col min="13" max="13" width="11.125" customWidth="1"/>
+    <col min="14" max="16" width="11.375" customWidth="1"/>
+    <col min="17" max="17" width="12.625" customWidth="1"/>
+    <col min="18" max="18" width="12.5" customWidth="1"/>
+    <col min="19" max="19" width="12.875" customWidth="1"/>
+    <col min="20" max="20" width="14" customWidth="1"/>
+    <col min="21" max="22" width="15.875" customWidth="1"/>
+    <col min="23" max="23" width="11.625" style="32" customWidth="1"/>
+    <col min="24" max="24" width="9.75" customWidth="1"/>
+    <col min="25" max="29" width="12.25" customWidth="1"/>
+    <col min="30" max="30" width="15.875" customWidth="1"/>
+    <col min="31" max="33" width="12.25" customWidth="1"/>
+    <col min="34" max="34" width="14.625" customWidth="1"/>
+    <col min="35" max="35" width="9" style="33"/>
+    <col min="36" max="36" width="14.25" customWidth="1"/>
+    <col min="38" max="38" width="11" customWidth="1"/>
+    <col min="39" max="39" width="12.375" customWidth="1"/>
+    <col min="40" max="40" width="15" customWidth="1"/>
+    <col min="41" max="41" width="10.25" customWidth="1"/>
+    <col min="42" max="42" width="13.75" customWidth="1"/>
+    <col min="43" max="43" width="15.125" customWidth="1"/>
+    <col min="44" max="44" width="17.625" customWidth="1"/>
+    <col min="45" max="45" width="10.125" customWidth="1"/>
+    <col min="46" max="46" width="10.625" customWidth="1"/>
+    <col min="47" max="47" width="14.25" customWidth="1"/>
+    <col min="48" max="48" width="15" customWidth="1"/>
+    <col min="49" max="49" width="12.75" customWidth="1"/>
+    <col min="50" max="50" width="13.25" customWidth="1"/>
+    <col min="51" max="51" width="15.5" customWidth="1"/>
+    <col min="52" max="52" width="17.625" customWidth="1"/>
+    <col min="53" max="53" width="12.125" customWidth="1"/>
+    <col min="54" max="54" width="15.625" customWidth="1"/>
+    <col min="55" max="55" width="12.625" customWidth="1"/>
+    <col min="56" max="56" width="18" customWidth="1"/>
+    <col min="57" max="57" width="13.375" customWidth="1"/>
+    <col min="58" max="58" width="15" customWidth="1"/>
+    <col min="59" max="59" width="13.25" customWidth="1"/>
+    <col min="60" max="60" width="16.625" customWidth="1"/>
+    <col min="61" max="61" width="12.375" customWidth="1"/>
+    <col min="62" max="62" width="15.125" customWidth="1"/>
+    <col min="63" max="63" width="10.125" style="34" customWidth="1"/>
+    <col min="64" max="64" width="16" customWidth="1"/>
+    <col min="65" max="65" width="19.125" customWidth="1"/>
+    <col min="66" max="66" width="10.75" customWidth="1"/>
+    <col min="67" max="67" width="13.625" customWidth="1"/>
+    <col min="68" max="68" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:61">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
+    <row r="1" spans="1:68">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="8" t="s">
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="H1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="K1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="L1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="19" t="s">
+      <c r="M1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="19" t="s">
+      <c r="N1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="19" t="s">
+      <c r="O1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="19" t="s">
+      <c r="P1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="19" t="s">
+      <c r="Q1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="19" t="s">
+      <c r="R1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="19" t="s">
+      <c r="S1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="19" t="s">
+      <c r="T1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="19" t="s">
+      <c r="U1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="W1" s="19" t="s">
+      <c r="V1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="X1" s="19" t="s">
+      <c r="W1" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="X1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="Y1" s="19" t="s">
+      <c r="Y1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="Z1" s="19" t="s">
+      <c r="Z1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="AA1" s="19" t="s">
+      <c r="AA1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="AB1" s="19" t="s">
+      <c r="AB1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="AC1" s="19" t="s">
+      <c r="AC1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="AD1" s="19" t="s">
+      <c r="AD1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="AE1" s="19" t="s">
+      <c r="AE1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="AF1" s="19" t="s">
+      <c r="AF1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="AG1" s="19" t="s">
+      <c r="AG1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="AH1" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI1" s="11" t="s">
+      <c r="AH1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="AJ1" s="21" t="s">
+      <c r="AI1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ1" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="AK1" s="21" t="s">
+      <c r="AK1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AL1" s="5" t="s">
         <v>34</v>
       </c>
       <c r="AM1" t="s">
@@ -2387,428 +2717,533 @@
       <c r="BI1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="2" spans="1:61">
-      <c r="A2" s="6" t="s">
+      <c r="BJ1" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="BK1" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="BL1" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="BM1" t="s">
         <v>60</v>
       </c>
-      <c r="D2" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="F2" s="10" t="s">
+      <c r="BN1" t="s">
         <v>61</v>
       </c>
-      <c r="G2" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="I2" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="K2" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="M2" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="N2" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="O2" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="P2" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q2" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="R2" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="S2" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="T2" s="19" t="s">
+      <c r="BO1" t="s">
         <v>62</v>
       </c>
-      <c r="U2" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="V2" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="W2" t="s">
-        <v>59</v>
+      <c r="BP1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:68">
+      <c r="A2" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="S2" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="T2" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="U2" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="V2" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="W2" s="35" t="s">
+        <v>64</v>
       </c>
       <c r="X2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="Y2" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="Z2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="AA2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="AB2" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="AC2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="AD2" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="AE2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="AF2" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="AG2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AH2" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI2" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="AJ2" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="AK2" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>59</v>
+        <v>65</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI2" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ2" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="AK2" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AL2" s="5" t="s">
+        <v>65</v>
       </c>
       <c r="AM2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="AN2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="AO2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="AP2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="AQ2" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="AR2" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="AS2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="AT2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="AU2" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="AV2" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="AW2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="AX2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="AY2" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="AZ2" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="BA2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="BB2" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="BC2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="BD2" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="BE2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="BF2" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="BG2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="BH2" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="BI2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:61">
-      <c r="A3" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>68</v>
+      </c>
+      <c r="BK2" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="BL2" t="s">
+        <v>65</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>68</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>65</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:68">
+      <c r="A3" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="I3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="D3" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="E3" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="F3" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="M3" s="8" t="s">
+      <c r="G3" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="N3" s="8" t="s">
+      <c r="H3" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="O3" s="8" t="s">
+      <c r="I3" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="P3" s="8" t="s">
+      <c r="J3" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="Q3" s="8" t="s">
+      <c r="K3" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="R3" s="8" t="s">
+      <c r="L3" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="S3" s="8" t="s">
+      <c r="M3" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="T3" s="8" t="s">
+      <c r="N3" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="U3" s="8" t="s">
+      <c r="O3" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="V3" s="36" t="s">
+      <c r="P3" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="W3" s="8" t="s">
+      <c r="Q3" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="X3" s="8" t="s">
+      <c r="R3" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="Y3" s="8" t="s">
+      <c r="S3" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="Z3" s="8" t="s">
+      <c r="T3" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="AA3" s="8" t="s">
+      <c r="U3" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="AB3" s="8" t="s">
+      <c r="V3" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="AC3" s="8" t="s">
+      <c r="W3" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="AD3" s="8" t="s">
+      <c r="X3" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="AE3" s="8" t="s">
+      <c r="Y3" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="AF3" s="8" t="s">
+      <c r="Z3" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="AG3" s="8" t="s">
+      <c r="AA3" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="AH3" s="22" t="s">
+      <c r="AB3" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="AI3" s="11" t="s">
+      <c r="AC3" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="AJ3" s="11" t="s">
+      <c r="AD3" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="AK3" s="11" t="s">
+      <c r="AE3" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="AL3" t="s">
+      <c r="AF3" s="7" t="s">
         <v>100</v>
       </c>
+      <c r="AG3" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="AH3" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="AI3" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="AJ3" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="AK3" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="AL3" s="7" t="s">
+        <v>106</v>
+      </c>
       <c r="AM3" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="AN3" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="AO3" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="AP3" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="AQ3" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="AR3" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="AS3" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="AT3" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="AU3" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="AV3" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="AW3" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="AX3" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="AY3" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="AZ3" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="BA3" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="BB3" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="BC3" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="BD3" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="BE3" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="BF3" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="BG3" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="BH3" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="BI3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="4" spans="2:37">
+        <v>129</v>
+      </c>
+      <c r="BJ3" t="s">
+        <v>130</v>
+      </c>
+      <c r="BK3" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="BL3" t="s">
+        <v>132</v>
+      </c>
+      <c r="BM3" t="s">
+        <v>133</v>
+      </c>
+      <c r="BN3" t="s">
+        <v>134</v>
+      </c>
+      <c r="BO3" t="s">
+        <v>135</v>
+      </c>
+      <c r="BP3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4" spans="2:38">
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>124</v>
+        <v>137</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>125</v>
-      </c>
-      <c r="AJ4">
+        <v>138</v>
+      </c>
+      <c r="G4" t="s">
+        <v>139</v>
+      </c>
+      <c r="AK4">
         <v>1</v>
       </c>
-      <c r="AK4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="2:37">
+      <c r="AL4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:38">
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>126</v>
-      </c>
-      <c r="AJ5">
+        <v>140</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>141</v>
+      </c>
+      <c r="G5" t="s">
+        <v>140</v>
+      </c>
+      <c r="AK5">
         <v>2</v>
       </c>
-      <c r="AK5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:37">
+      <c r="AL5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:38">
       <c r="B6">
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>127</v>
+        <v>142</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>128</v>
-      </c>
-      <c r="AJ6">
+        <v>143</v>
+      </c>
+      <c r="G6" t="s">
+        <v>144</v>
+      </c>
+      <c r="AK6">
         <v>3</v>
       </c>
-      <c r="AK6">
+      <c r="AL6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:2">
+    <row r="7" spans="2:7">
       <c r="B7">
         <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>145</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G7" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -2822,23 +3257,24 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:G91"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22:B27"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22:F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="15.25" customWidth="1"/>
-    <col min="2" max="2" width="13.875" customWidth="1"/>
-    <col min="3" max="3" width="18.5" customWidth="1"/>
-    <col min="4" max="4" width="52.5" customWidth="1"/>
+    <col min="1" max="1" width="23.25" style="21" customWidth="1"/>
+    <col min="2" max="2" width="13.875" style="21" customWidth="1"/>
+    <col min="3" max="3" width="18.5" style="21" customWidth="1"/>
+    <col min="4" max="4" width="52.5" style="21" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="21"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2846,7 +3282,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -2854,7 +3290,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2862,7 +3298,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -2870,7 +3306,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -2883,238 +3319,685 @@
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="26"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26" t="s">
-        <v>134</v>
-      </c>
-      <c r="D7" s="26" t="s">
-        <v>135</v>
+      <c r="A7" s="22"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>136</v>
+        <v>155</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D8" t="s">
-        <v>138</v>
+        <v>156</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D9" s="27" t="s">
-        <v>140</v>
+        <v>158</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D10" s="27" t="s">
-        <v>141</v>
+        <v>158</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D11" s="27" t="s">
-        <v>143</v>
+        <v>161</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D12" s="27" t="s">
-        <v>145</v>
+        <v>163</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D13" s="27" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="28"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28" t="s">
-        <v>148</v>
-      </c>
-      <c r="D14" s="29"/>
-    </row>
-    <row r="15" spans="1:4">
+        <v>165</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="23"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="D14" s="24"/>
+      <c r="F14" s="21" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="C15" s="1">
         <v>450</v>
       </c>
-      <c r="D15" s="30" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="D15" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="F15" s="1">
+        <v>320</v>
+      </c>
+      <c r="G15" s="21">
+        <f>SUM(F15:F21)</f>
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
-        <v>152</v>
+        <v>172</v>
       </c>
       <c r="C16" s="1">
         <v>500</v>
       </c>
-      <c r="D16" s="30"/>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="D16" s="16"/>
+      <c r="F16" s="1">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
       <c r="C17" s="1">
         <v>200</v>
       </c>
-      <c r="D17" s="30"/>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="D17" s="16"/>
+      <c r="F17" s="1">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="C18" s="1">
         <v>120</v>
       </c>
-      <c r="D18" s="30"/>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="D18" s="16"/>
+      <c r="F18" s="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
-        <v>155</v>
+        <v>175</v>
       </c>
       <c r="C19" s="1">
         <v>100</v>
       </c>
-      <c r="D19" s="30"/>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="D19" s="16"/>
+      <c r="F19" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
-        <v>156</v>
+        <v>176</v>
       </c>
       <c r="C20" s="1">
         <v>300</v>
       </c>
-      <c r="D20" s="30"/>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="D20" s="16"/>
+      <c r="F20" s="1">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
-        <v>157</v>
+        <v>177</v>
       </c>
       <c r="C21" s="1">
         <v>260</v>
       </c>
-      <c r="D21" s="30"/>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="D21" s="16"/>
+      <c r="F21" s="1">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>159</v>
+        <v>179</v>
       </c>
       <c r="C22" s="1">
         <v>1.2</v>
       </c>
-      <c r="D22" s="30"/>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="D22" s="16"/>
+      <c r="F22" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="G22" s="21">
+        <f>SUM(F22:F27)</f>
+        <v>8.2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="C23" s="1">
         <v>1.5</v>
       </c>
-      <c r="D23" s="30"/>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="D23" s="16"/>
+      <c r="F23" s="1">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="C24" s="1">
         <v>1.6</v>
       </c>
-      <c r="D24" s="30"/>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="D24" s="16"/>
+      <c r="F24" s="1">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="C25" s="1">
         <v>1.4</v>
       </c>
-      <c r="D25" s="30"/>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="D25" s="16"/>
+      <c r="F25" s="1">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="C26" s="1">
         <v>1</v>
       </c>
-      <c r="D26" s="30"/>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="31"/>
-      <c r="B27" s="31" t="s">
-        <v>164</v>
-      </c>
-      <c r="C27" s="31">
+      <c r="D26" s="16"/>
+      <c r="F26" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C27" s="1">
         <v>2</v>
       </c>
-      <c r="D27" s="31" t="s">
-        <v>165</v>
+      <c r="D27" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="F27" s="1">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="F28" s="1"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="25"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="B30" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="C30" s="26"/>
+      <c r="D30" s="21" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="B31" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="C31" s="26"/>
+      <c r="D31" s="21" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="B32" s="26" t="s">
+        <v>191</v>
+      </c>
+      <c r="C32" s="26"/>
+      <c r="D32" s="21" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="B33" s="26" t="s">
+        <v>194</v>
+      </c>
+      <c r="C33" s="26"/>
+      <c r="D33" s="21" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="27" t="s">
+        <v>196</v>
+      </c>
+      <c r="B34" s="26"/>
+      <c r="C34" s="26"/>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="26"/>
+      <c r="B35" s="26"/>
+      <c r="C35" s="26"/>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="26"/>
+      <c r="B36" s="26"/>
+      <c r="C36" s="26"/>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="26"/>
+      <c r="B37" s="26"/>
+      <c r="C37" s="26"/>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="26"/>
+      <c r="B38" s="26"/>
+      <c r="C38" s="26"/>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="26"/>
+      <c r="B39" s="26"/>
+      <c r="C39" s="26"/>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="D40" s="21">
+        <f>(C15+C16+C17+C18+C19+C20+C21)*(C22+C23+C24+C25+C26+C27)</f>
+        <v>16791</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="D41" s="21">
+        <f>240/4</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="21" t="s">
+        <v>199</v>
+      </c>
+      <c r="D42" s="21">
+        <f>D40/60</f>
+        <v>279.85</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="21" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="21" t="s">
+        <v>201</v>
+      </c>
+      <c r="D44" s="21">
+        <f>D40/42</f>
+        <v>399.785714285714</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="D45" s="21">
+        <f>300/400</f>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="25"/>
+      <c r="B46" s="25"/>
+      <c r="C46" s="25"/>
+      <c r="D46" s="25"/>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="21" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="B48" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="D48" s="21" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4">
+      <c r="B49" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="D49" s="21" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5">
+      <c r="B50" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="D50" s="28" t="s">
+        <v>210</v>
+      </c>
+      <c r="E50" s="28" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="C51" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="D51" s="21">
+        <f>D40/125</f>
+        <v>134.328</v>
+      </c>
+    </row>
+    <row r="52" spans="3:4">
+      <c r="C52" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="D52" s="21">
+        <f>D51/400</f>
+        <v>0.33582</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="25"/>
+      <c r="B53" s="25"/>
+      <c r="C53" s="25"/>
+      <c r="D53" s="25"/>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="21" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="B55" s="21" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2">
+      <c r="B56" s="21" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2">
+      <c r="B57" s="21" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2">
+      <c r="B58" s="21" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="21" t="s">
+        <v>221</v>
+      </c>
+      <c r="B59" s="21">
+        <f>G15*G22</f>
+        <v>12874</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="B60" s="29">
+        <f>B59/125</f>
+        <v>102.992</v>
+      </c>
+      <c r="C60" s="21" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="25"/>
+      <c r="B62" s="25"/>
+      <c r="C62" s="25"/>
+      <c r="D62" s="25"/>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="21" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="21" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2">
+      <c r="B65" s="21" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="66" spans="3:3">
+      <c r="C66" s="21" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="67" spans="3:3">
+      <c r="C67" s="21" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2">
+      <c r="B68" s="21" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="69" spans="3:3">
+      <c r="C69" s="21" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="70" spans="3:3">
+      <c r="C70" s="21" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="71" spans="3:4">
+      <c r="C71" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="D71" s="21" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="72" spans="4:4">
+      <c r="D72" s="30" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="73" spans="4:4">
+      <c r="D73" s="21" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="21" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2">
+      <c r="B75" s="21" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="76" spans="3:3">
+      <c r="C76" s="21" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="77" spans="3:3">
+      <c r="C77" s="21" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="78" spans="3:3">
+      <c r="C78" s="21" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2">
+      <c r="B79" s="21" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="80" spans="3:3">
+      <c r="C80" s="21" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2">
+      <c r="B82" s="28" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2">
+      <c r="B83" s="21" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2">
+      <c r="B84" s="21" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="85" spans="3:3">
+      <c r="C85" s="21" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="21" t="s">
+        <v>247</v>
+      </c>
+      <c r="B90" s="21" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2">
+      <c r="B91" s="21" t="s">
+        <v>249</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="6">
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
     <mergeCell ref="D15:D26"/>
+    <mergeCell ref="A34:C39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3143,8 +4026,8 @@
     <col min="8" max="8" width="11.875" style="1" customWidth="1"/>
     <col min="9" max="9" width="13" style="1" customWidth="1"/>
     <col min="10" max="10" width="9.125" style="4" customWidth="1"/>
-    <col min="11" max="11" width="9.125" style="5" customWidth="1"/>
-    <col min="12" max="12" width="12.125" style="5" customWidth="1"/>
+    <col min="11" max="11" width="9.125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="12.125" style="2" customWidth="1"/>
     <col min="13" max="13" width="12.25" style="1" customWidth="1"/>
     <col min="14" max="17" width="12.375" style="1" customWidth="1"/>
     <col min="18" max="18" width="13.375" style="1" customWidth="1"/>
@@ -3160,252 +4043,252 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="I1" s="19" t="s">
-        <v>167</v>
-      </c>
-      <c r="J1" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="K1" s="21" t="s">
+      <c r="E1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="L1" s="21" t="s">
-        <v>168</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="N1" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="O1" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="P1" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q1" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="R1" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="S1" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="T1" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="U1" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="V1" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="W1" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="X1" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="Y1" s="24" t="s">
-        <v>181</v>
-      </c>
-      <c r="Z1" s="24" t="s">
-        <v>182</v>
-      </c>
-      <c r="AA1" s="24" t="s">
-        <v>183</v>
+      <c r="G1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="R1" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="S1" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="T1" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="U1" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="V1" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="W1" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="X1" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="Y1" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="Z1" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="AA1" s="20" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="2" spans="1:27">
-      <c r="A2" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="I2" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="J2" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="K2" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="L2" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="N2" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="O2" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="P2" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q2" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="R2" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="S2" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="T2" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="U2" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="V2" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="W2" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="X2" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y2" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z2" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="AA2" s="24" t="s">
-        <v>60</v>
+      <c r="A2" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="S2" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="T2" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="U2" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="V2" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="W2" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="X2" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y2" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z2" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA2" s="20" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:27">
-      <c r="A3" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="B3" s="7" t="s">
+      <c r="A3" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="J3" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="K3" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="L3" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="M3" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="N3" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="O3" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="P3" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q3" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="R3" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="S3" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="T3" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="U3" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="V3" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="W3" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="X3" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="Y3" s="24" t="s">
-        <v>200</v>
-      </c>
-      <c r="Z3" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="AA3" s="24" t="s">
-        <v>201</v>
+      <c r="C3" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="J3" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q3" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="S3" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="T3" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="U3" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="V3" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="W3" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="X3" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="Y3" s="20" t="s">
+        <v>284</v>
+      </c>
+      <c r="Z3" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA3" s="20" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="4" spans="2:27">
@@ -3413,15 +4296,15 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>202</v>
+        <v>286</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
       </c>
-      <c r="E4" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="F4" s="5" t="b">
+      <c r="E4" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="F4" s="2" t="b">
         <v>1</v>
       </c>
       <c r="G4" s="3"/>
@@ -3431,10 +4314,10 @@
       <c r="I4" s="1">
         <v>0</v>
       </c>
-      <c r="K4" s="5">
-        <v>0</v>
-      </c>
-      <c r="L4" s="5">
+      <c r="K4" s="2">
+        <v>0</v>
+      </c>
+      <c r="L4" s="2">
         <v>0</v>
       </c>
       <c r="M4" s="1">
@@ -3447,7 +4330,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>204</v>
+        <v>288</v>
       </c>
       <c r="Q4" s="1">
         <v>0.5</v>
@@ -3476,11 +4359,11 @@
       <c r="Y4" s="1">
         <v>30</v>
       </c>
-      <c r="Z4" s="18">
+      <c r="Z4" s="16">
         <v>1</v>
       </c>
-      <c r="AA4" s="25" t="s">
-        <v>205</v>
+      <c r="AA4" s="1" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="5" spans="2:27">
@@ -3488,15 +4371,15 @@
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>206</v>
+        <v>290</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
       </c>
-      <c r="E5" s="14" t="s">
-        <v>207</v>
-      </c>
-      <c r="F5" s="5" t="b">
+      <c r="E5" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="F5" s="2" t="b">
         <v>1</v>
       </c>
       <c r="G5" s="3"/>
@@ -3506,10 +4389,10 @@
       <c r="I5" s="1">
         <v>0</v>
       </c>
-      <c r="K5" s="5">
-        <v>0</v>
-      </c>
-      <c r="L5" s="5">
+      <c r="K5" s="2">
+        <v>0</v>
+      </c>
+      <c r="L5" s="2">
         <v>0</v>
       </c>
       <c r="M5" s="1">
@@ -3522,7 +4405,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>208</v>
+        <v>292</v>
       </c>
       <c r="Q5" s="1">
         <v>0</v>
@@ -3551,11 +4434,11 @@
       <c r="Y5" s="1">
         <v>30</v>
       </c>
-      <c r="Z5" s="18">
+      <c r="Z5" s="16">
         <v>1</v>
       </c>
       <c r="AA5" s="1" t="s">
-        <v>209</v>
+        <v>293</v>
       </c>
     </row>
     <row r="6" spans="2:27">
@@ -3563,15 +4446,15 @@
         <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>210</v>
+        <v>294</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
       </c>
-      <c r="E6" s="14" t="s">
-        <v>211</v>
-      </c>
-      <c r="F6" s="5" t="b">
+      <c r="E6" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="F6" s="2" t="b">
         <v>1</v>
       </c>
       <c r="G6" s="3"/>
@@ -3581,10 +4464,10 @@
       <c r="I6" s="1">
         <v>0</v>
       </c>
-      <c r="K6" s="5">
-        <v>0</v>
-      </c>
-      <c r="L6" s="5">
+      <c r="K6" s="2">
+        <v>0</v>
+      </c>
+      <c r="L6" s="2">
         <v>0</v>
       </c>
       <c r="M6" s="1">
@@ -3597,7 +4480,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>204</v>
+        <v>288</v>
       </c>
       <c r="Q6" s="1">
         <v>0</v>
@@ -3626,11 +4509,11 @@
       <c r="Y6" s="1">
         <v>0</v>
       </c>
-      <c r="Z6" s="18">
+      <c r="Z6" s="16">
         <v>0</v>
       </c>
       <c r="AA6" s="1" t="s">
-        <v>212</v>
+        <v>296</v>
       </c>
     </row>
     <row r="7" spans="2:27">
@@ -3638,15 +4521,15 @@
         <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>213</v>
+        <v>297</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
       </c>
-      <c r="E7" s="14" t="s">
-        <v>214</v>
-      </c>
-      <c r="F7" s="5" t="b">
+      <c r="E7" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="F7" s="2" t="b">
         <v>0</v>
       </c>
       <c r="G7" s="3"/>
@@ -3656,10 +4539,10 @@
       <c r="I7" s="1">
         <v>0</v>
       </c>
-      <c r="K7" s="5">
-        <v>0</v>
-      </c>
-      <c r="L7" s="5">
+      <c r="K7" s="2">
+        <v>0</v>
+      </c>
+      <c r="L7" s="2">
         <v>0</v>
       </c>
       <c r="M7" s="1">
@@ -3672,7 +4555,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>204</v>
+        <v>288</v>
       </c>
       <c r="Q7" s="1">
         <v>0</v>
@@ -3705,7 +4588,7 @@
         <v>-20</v>
       </c>
       <c r="AA7" s="1" t="s">
-        <v>215</v>
+        <v>299</v>
       </c>
     </row>
     <row r="8" spans="2:27">
@@ -3713,15 +4596,15 @@
         <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>216</v>
+        <v>300</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
       </c>
-      <c r="E8" s="14" t="s">
-        <v>217</v>
-      </c>
-      <c r="F8" s="5" t="b">
+      <c r="E8" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="F8" s="2" t="b">
         <v>1</v>
       </c>
       <c r="G8" s="3"/>
@@ -3731,10 +4614,10 @@
       <c r="I8" s="1">
         <v>1</v>
       </c>
-      <c r="K8" s="5">
-        <v>0</v>
-      </c>
-      <c r="L8" s="5">
+      <c r="K8" s="2">
+        <v>0</v>
+      </c>
+      <c r="L8" s="2">
         <v>0</v>
       </c>
       <c r="M8" s="1">
@@ -3747,7 +4630,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>204</v>
+        <v>288</v>
       </c>
       <c r="Q8" s="1">
         <v>0</v>
@@ -3780,7 +4663,7 @@
         <v>0</v>
       </c>
       <c r="AA8" s="1" t="s">
-        <v>218</v>
+        <v>302</v>
       </c>
     </row>
     <row r="9" spans="2:27">
@@ -3788,15 +4671,15 @@
         <v>6</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>219</v>
+        <v>303</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
       </c>
-      <c r="E9" s="14" t="s">
-        <v>220</v>
-      </c>
-      <c r="F9" s="5" t="b">
+      <c r="E9" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="F9" s="2" t="b">
         <v>1</v>
       </c>
       <c r="G9" s="3"/>
@@ -3806,10 +4689,10 @@
       <c r="I9" s="1">
         <v>0</v>
       </c>
-      <c r="K9" s="5">
-        <v>0</v>
-      </c>
-      <c r="L9" s="5">
+      <c r="K9" s="2">
+        <v>0</v>
+      </c>
+      <c r="L9" s="2">
         <v>0</v>
       </c>
       <c r="M9" s="1">
@@ -3822,7 +4705,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>204</v>
+        <v>288</v>
       </c>
       <c r="Q9" s="1">
         <v>0</v>
@@ -3855,7 +4738,7 @@
         <v>0</v>
       </c>
       <c r="AA9" s="1" t="s">
-        <v>221</v>
+        <v>305</v>
       </c>
     </row>
     <row r="10" spans="2:27">
@@ -3863,15 +4746,15 @@
         <v>7</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>222</v>
+        <v>306</v>
       </c>
       <c r="D10" s="1">
         <v>1</v>
       </c>
-      <c r="E10" s="14" t="s">
-        <v>223</v>
-      </c>
-      <c r="F10" s="5" t="b">
+      <c r="E10" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="F10" s="2" t="b">
         <v>1</v>
       </c>
       <c r="G10" s="3"/>
@@ -3881,10 +4764,10 @@
       <c r="I10" s="1">
         <v>0</v>
       </c>
-      <c r="K10" s="5">
-        <v>0</v>
-      </c>
-      <c r="L10" s="5">
+      <c r="K10" s="2">
+        <v>0</v>
+      </c>
+      <c r="L10" s="2">
         <v>1</v>
       </c>
       <c r="M10" s="1">
@@ -3897,7 +4780,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>204</v>
+        <v>288</v>
       </c>
       <c r="Q10" s="1">
         <v>0</v>
@@ -3930,7 +4813,7 @@
         <v>0</v>
       </c>
       <c r="AA10" s="1" t="s">
-        <v>224</v>
+        <v>308</v>
       </c>
     </row>
     <row r="11" spans="2:27">
@@ -3938,15 +4821,15 @@
         <v>8</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>225</v>
+        <v>309</v>
       </c>
       <c r="D11" s="1">
         <v>1</v>
       </c>
-      <c r="E11" s="14" t="s">
-        <v>226</v>
-      </c>
-      <c r="F11" s="5" t="b">
+      <c r="E11" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="F11" s="2" t="b">
         <v>1</v>
       </c>
       <c r="G11" s="3"/>
@@ -3956,10 +4839,10 @@
       <c r="I11" s="1">
         <v>0</v>
       </c>
-      <c r="K11" s="5">
-        <v>0</v>
-      </c>
-      <c r="L11" s="5">
+      <c r="K11" s="2">
+        <v>0</v>
+      </c>
+      <c r="L11" s="2">
         <v>0</v>
       </c>
       <c r="M11" s="1">
@@ -3972,7 +4855,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>204</v>
+        <v>288</v>
       </c>
       <c r="Q11" s="1">
         <v>0</v>
@@ -4005,7 +4888,7 @@
         <v>100</v>
       </c>
       <c r="AA11" s="1" t="s">
-        <v>227</v>
+        <v>311</v>
       </c>
     </row>
     <row r="12" spans="2:26">
@@ -4013,15 +4896,15 @@
         <v>9</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>228</v>
+        <v>312</v>
       </c>
       <c r="D12" s="1">
         <v>1</v>
       </c>
-      <c r="E12" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="F12" s="5" t="b">
+      <c r="E12" s="12" t="s">
+        <v>313</v>
+      </c>
+      <c r="F12" s="2" t="b">
         <v>1</v>
       </c>
       <c r="G12" s="3"/>
@@ -4031,10 +4914,10 @@
       <c r="I12" s="1">
         <v>0</v>
       </c>
-      <c r="K12" s="5">
-        <v>0</v>
-      </c>
-      <c r="L12" s="5">
+      <c r="K12" s="2">
+        <v>0</v>
+      </c>
+      <c r="L12" s="2">
         <v>0</v>
       </c>
       <c r="M12" s="1">
@@ -4047,7 +4930,7 @@
         <v>0.2</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>204</v>
+        <v>288</v>
       </c>
       <c r="Q12" s="1">
         <v>0</v>
@@ -4076,7 +4959,7 @@
       <c r="Y12" s="1">
         <v>30</v>
       </c>
-      <c r="Z12" s="18">
+      <c r="Z12" s="16">
         <v>4</v>
       </c>
     </row>
@@ -4085,15 +4968,15 @@
         <v>10</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>230</v>
+        <v>314</v>
       </c>
       <c r="D13" s="1">
         <v>1</v>
       </c>
-      <c r="E13" s="14" t="s">
-        <v>231</v>
-      </c>
-      <c r="F13" s="5" t="b">
+      <c r="E13" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F13" s="2" t="b">
         <v>0</v>
       </c>
       <c r="G13" s="3"/>
@@ -4103,10 +4986,10 @@
       <c r="I13" s="1">
         <v>0</v>
       </c>
-      <c r="K13" s="5">
+      <c r="K13" s="2">
         <v>2</v>
       </c>
-      <c r="L13" s="5">
+      <c r="L13" s="2">
         <v>0</v>
       </c>
       <c r="M13" s="1">
@@ -4119,7 +5002,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>204</v>
+        <v>288</v>
       </c>
       <c r="Q13" s="1">
         <v>0</v>
@@ -4157,15 +5040,15 @@
         <v>11</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>232</v>
+        <v>316</v>
       </c>
       <c r="D14" s="1">
         <v>1</v>
       </c>
-      <c r="E14" s="14" t="s">
-        <v>233</v>
-      </c>
-      <c r="F14" s="5" t="b">
+      <c r="E14" s="12" t="s">
+        <v>317</v>
+      </c>
+      <c r="F14" s="2" t="b">
         <v>1</v>
       </c>
       <c r="G14" s="3"/>
@@ -4175,10 +5058,10 @@
       <c r="I14" s="1">
         <v>0</v>
       </c>
-      <c r="K14" s="5">
-        <v>0</v>
-      </c>
-      <c r="L14" s="5">
+      <c r="K14" s="2">
+        <v>0</v>
+      </c>
+      <c r="L14" s="2">
         <v>0</v>
       </c>
       <c r="M14" s="1">
@@ -4191,7 +5074,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>204</v>
+        <v>288</v>
       </c>
       <c r="Q14" s="1">
         <v>0</v>
@@ -4220,7 +5103,7 @@
       <c r="Y14" s="1">
         <v>0</v>
       </c>
-      <c r="Z14" s="18">
+      <c r="Z14" s="16">
         <v>5</v>
       </c>
     </row>
@@ -4229,15 +5112,15 @@
         <v>12</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>234</v>
+        <v>318</v>
       </c>
       <c r="D15" s="1">
         <v>2</v>
       </c>
-      <c r="E15" s="14" t="s">
-        <v>235</v>
-      </c>
-      <c r="F15" s="5" t="b">
+      <c r="E15" s="12" t="s">
+        <v>319</v>
+      </c>
+      <c r="F15" s="2" t="b">
         <v>1</v>
       </c>
       <c r="G15" s="3"/>
@@ -4247,10 +5130,10 @@
       <c r="I15" s="1">
         <v>0</v>
       </c>
-      <c r="K15" s="5">
-        <v>0</v>
-      </c>
-      <c r="L15" s="5">
+      <c r="K15" s="2">
+        <v>0</v>
+      </c>
+      <c r="L15" s="2">
         <v>0</v>
       </c>
       <c r="M15" s="1">
@@ -4263,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>204</v>
+        <v>288</v>
       </c>
       <c r="Q15" s="1">
         <v>0</v>
@@ -4292,7 +5175,7 @@
       <c r="Y15" s="1">
         <v>7</v>
       </c>
-      <c r="Z15" s="18">
+      <c r="Z15" s="16">
         <v>2</v>
       </c>
     </row>
@@ -4301,39 +5184,39 @@
         <v>13</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>236</v>
+        <v>320</v>
       </c>
       <c r="D16" s="1">
         <v>2</v>
       </c>
-      <c r="E16" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="F16" s="16"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="18"/>
-      <c r="N16" s="18"/>
-      <c r="O16" s="18"/>
-      <c r="P16" s="18"/>
-      <c r="Q16" s="18"/>
-      <c r="R16" s="18"/>
-      <c r="S16" s="18"/>
-      <c r="T16" s="18"/>
-      <c r="U16" s="18"/>
-      <c r="V16" s="18"/>
-      <c r="W16" s="18"/>
+      <c r="E16" s="13" t="s">
+        <v>321</v>
+      </c>
+      <c r="F16" s="14"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="16"/>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="16"/>
+      <c r="R16" s="16"/>
+      <c r="S16" s="16"/>
+      <c r="T16" s="16"/>
+      <c r="U16" s="16"/>
+      <c r="V16" s="16"/>
+      <c r="W16" s="16"/>
       <c r="X16" s="1">
         <v>0</v>
       </c>
       <c r="Y16" s="1">
         <v>7</v>
       </c>
-      <c r="Z16" s="18">
+      <c r="Z16" s="16">
         <v>5</v>
       </c>
     </row>
@@ -4342,15 +5225,15 @@
         <v>14</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>238</v>
+        <v>322</v>
       </c>
       <c r="D17" s="1">
         <v>2</v>
       </c>
-      <c r="E17" s="14" t="s">
-        <v>239</v>
-      </c>
-      <c r="F17" s="5"/>
+      <c r="E17" s="12" t="s">
+        <v>323</v>
+      </c>
+      <c r="F17" s="2"/>
       <c r="G17" s="3"/>
       <c r="X17" s="1">
         <v>0</v>
@@ -4358,7 +5241,7 @@
       <c r="Y17" s="1">
         <v>0</v>
       </c>
-      <c r="Z17" s="18">
+      <c r="Z17" s="16">
         <v>2</v>
       </c>
     </row>
@@ -4367,15 +5250,15 @@
         <v>15</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>240</v>
+        <v>324</v>
       </c>
       <c r="D18" s="1">
         <v>2</v>
       </c>
-      <c r="E18" s="14" t="s">
-        <v>241</v>
-      </c>
-      <c r="F18" s="5"/>
+      <c r="E18" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="F18" s="2"/>
       <c r="G18" s="3"/>
       <c r="X18" s="1">
         <v>0</v>
@@ -4392,15 +5275,15 @@
         <v>16</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>242</v>
+        <v>326</v>
       </c>
       <c r="D19" s="1">
         <v>2</v>
       </c>
-      <c r="E19" s="14" t="s">
-        <v>243</v>
-      </c>
-      <c r="F19" s="5"/>
+      <c r="E19" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="F19" s="2"/>
       <c r="G19" s="3"/>
       <c r="X19" s="1">
         <v>0</v>
@@ -4408,7 +5291,7 @@
       <c r="Y19" s="1">
         <v>0</v>
       </c>
-      <c r="Z19" s="18">
+      <c r="Z19" s="16">
         <v>3</v>
       </c>
     </row>
@@ -4417,15 +5300,15 @@
         <v>17</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>244</v>
+        <v>328</v>
       </c>
       <c r="D20" s="1">
         <v>2</v>
       </c>
-      <c r="E20" s="14" t="s">
-        <v>245</v>
-      </c>
-      <c r="F20" s="5"/>
+      <c r="E20" s="12" t="s">
+        <v>329</v>
+      </c>
+      <c r="F20" s="2"/>
       <c r="G20" s="3"/>
       <c r="X20" s="1">
         <v>0</v>
@@ -4433,7 +5316,7 @@
       <c r="Y20" s="1">
         <v>0</v>
       </c>
-      <c r="Z20" s="18">
+      <c r="Z20" s="16">
         <v>5</v>
       </c>
     </row>
@@ -4442,15 +5325,15 @@
         <v>18</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>246</v>
+        <v>330</v>
       </c>
       <c r="D21" s="1">
         <v>3</v>
       </c>
-      <c r="E21" s="14" t="s">
-        <v>247</v>
-      </c>
-      <c r="F21" s="5"/>
+      <c r="E21" s="12" t="s">
+        <v>331</v>
+      </c>
+      <c r="F21" s="2"/>
       <c r="G21" s="3"/>
       <c r="X21" s="1">
         <v>0</v>
@@ -4467,15 +5350,15 @@
         <v>19</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>248</v>
+        <v>332</v>
       </c>
       <c r="D22" s="1">
         <v>3</v>
       </c>
-      <c r="E22" s="14" t="s">
-        <v>249</v>
-      </c>
-      <c r="F22" s="5"/>
+      <c r="E22" s="12" t="s">
+        <v>333</v>
+      </c>
+      <c r="F22" s="2"/>
       <c r="G22" s="3"/>
       <c r="X22" s="1">
         <v>0</v>
@@ -4492,15 +5375,15 @@
         <v>20</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>250</v>
+        <v>334</v>
       </c>
       <c r="D23" s="1">
         <v>3</v>
       </c>
-      <c r="E23" s="14" t="s">
-        <v>251</v>
-      </c>
-      <c r="F23" s="5"/>
+      <c r="E23" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="F23" s="2"/>
       <c r="G23" s="3"/>
       <c r="X23" s="1">
         <v>0</v>
@@ -4517,15 +5400,15 @@
         <v>21</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>252</v>
+        <v>336</v>
       </c>
       <c r="D24" s="1">
         <v>3</v>
       </c>
-      <c r="E24" s="14" t="s">
-        <v>253</v>
-      </c>
-      <c r="F24" s="5"/>
+      <c r="E24" s="12" t="s">
+        <v>337</v>
+      </c>
+      <c r="F24" s="2"/>
       <c r="G24" s="3"/>
       <c r="X24" s="1">
         <v>0</v>
@@ -4542,15 +5425,15 @@
         <v>22</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>254</v>
+        <v>338</v>
       </c>
       <c r="D25" s="1">
         <v>3</v>
       </c>
-      <c r="E25" s="14" t="s">
-        <v>255</v>
-      </c>
-      <c r="F25" s="5"/>
+      <c r="E25" s="12" t="s">
+        <v>339</v>
+      </c>
+      <c r="F25" s="2"/>
       <c r="G25" s="3"/>
       <c r="X25" s="1">
         <v>0</v>
@@ -4558,11 +5441,11 @@
       <c r="Y25" s="1">
         <v>0</v>
       </c>
-      <c r="Z25" s="18">
+      <c r="Z25" s="16">
         <v>1</v>
       </c>
       <c r="AA25" s="1" t="s">
-        <v>256</v>
+        <v>340</v>
       </c>
     </row>
     <row r="26" spans="2:26">
@@ -4570,15 +5453,15 @@
         <v>23</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>257</v>
+        <v>341</v>
       </c>
       <c r="D26" s="1">
         <v>3</v>
       </c>
-      <c r="E26" s="14" t="s">
-        <v>258</v>
-      </c>
-      <c r="F26" s="5"/>
+      <c r="E26" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="F26" s="2"/>
       <c r="G26" s="3"/>
       <c r="X26" s="1">
         <v>0</v>
@@ -4586,7 +5469,7 @@
       <c r="Y26" s="1">
         <v>0</v>
       </c>
-      <c r="Z26" s="18">
+      <c r="Z26" s="16">
         <v>3</v>
       </c>
     </row>
@@ -4595,15 +5478,15 @@
         <v>24</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>259</v>
+        <v>343</v>
       </c>
       <c r="D27" s="1">
         <v>3</v>
       </c>
-      <c r="E27" s="14" t="s">
-        <v>260</v>
-      </c>
-      <c r="F27" s="5"/>
+      <c r="E27" s="12" t="s">
+        <v>344</v>
+      </c>
+      <c r="F27" s="2"/>
       <c r="G27" s="3"/>
       <c r="X27" s="1">
         <v>0</v>
@@ -4620,15 +5503,15 @@
         <v>25</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>261</v>
+        <v>345</v>
       </c>
       <c r="D28" s="1">
         <v>3</v>
       </c>
-      <c r="E28" s="14" t="s">
-        <v>262</v>
-      </c>
-      <c r="F28" s="5"/>
+      <c r="E28" s="12" t="s">
+        <v>346</v>
+      </c>
+      <c r="F28" s="2"/>
       <c r="G28" s="3"/>
       <c r="X28" s="1">
         <v>0</v>
@@ -4636,7 +5519,7 @@
       <c r="Y28" s="1">
         <v>1</v>
       </c>
-      <c r="Z28" s="18">
+      <c r="Z28" s="16">
         <v>2</v>
       </c>
     </row>
@@ -4645,15 +5528,15 @@
         <v>26</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>263</v>
+        <v>347</v>
       </c>
       <c r="D29" s="1">
         <v>4</v>
       </c>
-      <c r="E29" s="14" t="s">
-        <v>264</v>
-      </c>
-      <c r="F29" s="5"/>
+      <c r="E29" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="F29" s="2"/>
       <c r="G29" s="3"/>
       <c r="X29" s="1">
         <v>0</v>
@@ -4670,15 +5553,15 @@
         <v>27</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>265</v>
+        <v>349</v>
       </c>
       <c r="D30" s="1">
         <v>4</v>
       </c>
-      <c r="E30" s="14" t="s">
-        <v>266</v>
-      </c>
-      <c r="F30" s="5"/>
+      <c r="E30" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="F30" s="2"/>
       <c r="G30" s="3"/>
       <c r="X30" s="1">
         <v>0</v>
@@ -4695,15 +5578,15 @@
         <v>28</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>267</v>
+        <v>351</v>
       </c>
       <c r="D31" s="1">
         <v>4</v>
       </c>
-      <c r="E31" s="14" t="s">
-        <v>268</v>
-      </c>
-      <c r="F31" s="5"/>
+      <c r="E31" s="12" t="s">
+        <v>352</v>
+      </c>
+      <c r="F31" s="2"/>
       <c r="G31" s="3"/>
       <c r="X31" s="1">
         <v>0</v>
@@ -4720,15 +5603,15 @@
         <v>29</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>269</v>
+        <v>353</v>
       </c>
       <c r="D32" s="1">
         <v>4</v>
       </c>
-      <c r="E32" s="14" t="s">
-        <v>270</v>
-      </c>
-      <c r="F32" s="5"/>
+      <c r="E32" s="12" t="s">
+        <v>354</v>
+      </c>
+      <c r="F32" s="2"/>
       <c r="G32" s="3"/>
       <c r="X32" s="1">
         <v>0</v>
@@ -4740,7 +5623,7 @@
         <v>0</v>
       </c>
       <c r="AA32" s="1" t="s">
-        <v>271</v>
+        <v>355</v>
       </c>
     </row>
     <row r="33" spans="2:26">
@@ -4748,15 +5631,15 @@
         <v>30</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>272</v>
+        <v>356</v>
       </c>
       <c r="D33" s="1">
         <v>4</v>
       </c>
-      <c r="E33" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="F33" s="5"/>
+      <c r="E33" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="F33" s="2"/>
       <c r="G33" s="3"/>
       <c r="X33" s="1">
         <v>0</v>
@@ -4773,15 +5656,15 @@
         <v>31</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>274</v>
+        <v>358</v>
       </c>
       <c r="D34" s="1">
         <v>4</v>
       </c>
-      <c r="E34" s="14" t="s">
-        <v>275</v>
-      </c>
-      <c r="F34" s="5"/>
+      <c r="E34" s="12" t="s">
+        <v>359</v>
+      </c>
+      <c r="F34" s="2"/>
       <c r="G34" s="3"/>
       <c r="X34" s="1">
         <v>0</v>
@@ -4798,15 +5681,15 @@
         <v>32</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>276</v>
+        <v>360</v>
       </c>
       <c r="D35" s="1">
         <v>4</v>
       </c>
-      <c r="E35" s="14" t="s">
-        <v>277</v>
-      </c>
-      <c r="F35" s="5"/>
+      <c r="E35" s="12" t="s">
+        <v>361</v>
+      </c>
+      <c r="F35" s="2"/>
       <c r="G35" s="3"/>
       <c r="X35" s="1">
         <v>0</v>
@@ -4823,15 +5706,15 @@
         <v>33</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>278</v>
+        <v>362</v>
       </c>
       <c r="D36" s="1">
         <v>4</v>
       </c>
-      <c r="E36" s="14" t="s">
-        <v>279</v>
-      </c>
-      <c r="F36" s="5"/>
+      <c r="E36" s="12" t="s">
+        <v>363</v>
+      </c>
+      <c r="F36" s="2"/>
       <c r="G36" s="3"/>
       <c r="X36" s="1">
         <v>0</v>
@@ -4848,15 +5731,15 @@
         <v>34</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>280</v>
+        <v>364</v>
       </c>
       <c r="D37" s="1">
         <v>4</v>
       </c>
-      <c r="E37" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="F37" s="5"/>
+      <c r="E37" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="F37" s="2"/>
       <c r="G37" s="3"/>
       <c r="X37" s="1">
         <v>0</v>
@@ -4873,15 +5756,15 @@
         <v>35</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>282</v>
+        <v>366</v>
       </c>
       <c r="D38" s="1">
         <v>4</v>
       </c>
-      <c r="E38" s="14" t="s">
-        <v>283</v>
-      </c>
-      <c r="F38" s="5"/>
+      <c r="E38" s="12" t="s">
+        <v>367</v>
+      </c>
+      <c r="F38" s="2"/>
       <c r="G38" s="3"/>
       <c r="X38" s="1">
         <v>0</v>

--- a/luban/卡牌表.xlsx
+++ b/luban/卡牌表.xlsx
@@ -223,7 +223,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="373">
   <si>
     <t>##var</t>
   </si>
@@ -936,6 +936,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>相当于</t>
     </r>
     <r>
@@ -995,6 +1002,21 @@
   </si>
   <si>
     <t>按照</t>
+  </si>
+  <si>
+    <t>抽卡</t>
+  </si>
+  <si>
+    <t>每次抽卡会抽取3张，所以抛开初始手牌的10张，玩家还需要打出365张，相当于抽取大约122次</t>
+  </si>
+  <si>
+    <t>如果初始费用为10信仰，之后每次抽取+1费用，到120次总共累计消耗8470信仰（8470&lt;12874相当于靠信徒转化都能cover住的程度）</t>
+  </si>
+  <si>
+    <t>但考虑到部分玩法可能需要大量抽卡，所以抽卡费用应进行控制，先把上限定为99</t>
+  </si>
+  <si>
+    <t>这样从第一次抽取到第120次抽取累计消耗信仰7875，之后视情况进一步降低抽卡费用</t>
   </si>
   <si>
     <t>关于流派</t>
@@ -2049,7 +2071,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2113,23 +2135,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2141,6 +2151,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
@@ -2480,7 +2493,7 @@
     <col min="3" max="3" width="26.125" customWidth="1"/>
     <col min="6" max="6" width="20.25" customWidth="1"/>
     <col min="7" max="7" width="27.875" customWidth="1"/>
-    <col min="8" max="8" width="9" style="31"/>
+    <col min="8" max="8" width="9" style="28"/>
     <col min="9" max="9" width="11" customWidth="1"/>
     <col min="10" max="10" width="10.5" customWidth="1"/>
     <col min="11" max="11" width="10.75" customWidth="1"/>
@@ -2492,13 +2505,13 @@
     <col min="19" max="19" width="12.875" customWidth="1"/>
     <col min="20" max="20" width="14" customWidth="1"/>
     <col min="21" max="22" width="15.875" customWidth="1"/>
-    <col min="23" max="23" width="11.625" style="32" customWidth="1"/>
+    <col min="23" max="23" width="11.625" style="29" customWidth="1"/>
     <col min="24" max="24" width="9.75" customWidth="1"/>
     <col min="25" max="29" width="12.25" customWidth="1"/>
     <col min="30" max="30" width="15.875" customWidth="1"/>
     <col min="31" max="33" width="12.25" customWidth="1"/>
     <col min="34" max="34" width="14.625" customWidth="1"/>
-    <col min="35" max="35" width="9" style="33"/>
+    <col min="35" max="35" width="9" style="30"/>
     <col min="36" max="36" width="14.25" customWidth="1"/>
     <col min="38" max="38" width="11" customWidth="1"/>
     <col min="39" max="39" width="12.375" customWidth="1"/>
@@ -2525,7 +2538,7 @@
     <col min="60" max="60" width="16.625" customWidth="1"/>
     <col min="61" max="61" width="12.375" customWidth="1"/>
     <col min="62" max="62" width="15.125" customWidth="1"/>
-    <col min="63" max="63" width="10.125" style="34" customWidth="1"/>
+    <col min="63" max="63" width="10.125" style="31" customWidth="1"/>
     <col min="64" max="64" width="16" customWidth="1"/>
     <col min="65" max="65" width="19.125" customWidth="1"/>
     <col min="66" max="66" width="10.75" customWidth="1"/>
@@ -2600,7 +2613,7 @@
       <c r="V1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="35" t="s">
+      <c r="W1" s="32" t="s">
         <v>0</v>
       </c>
       <c r="X1" s="7" t="s">
@@ -2720,7 +2733,7 @@
       <c r="BJ1" t="s">
         <v>58</v>
       </c>
-      <c r="BK1" s="34" t="s">
+      <c r="BK1" s="31" t="s">
         <v>0</v>
       </c>
       <c r="BL1" t="s">
@@ -2806,7 +2819,7 @@
       <c r="V2" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="W2" s="35" t="s">
+      <c r="W2" s="32" t="s">
         <v>64</v>
       </c>
       <c r="X2" t="s">
@@ -2926,7 +2939,7 @@
       <c r="BJ2" t="s">
         <v>68</v>
       </c>
-      <c r="BK2" s="34" t="s">
+      <c r="BK2" s="31" t="s">
         <v>64</v>
       </c>
       <c r="BL2" t="s">
@@ -3012,7 +3025,7 @@
       <c r="V3" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="W3" s="35" t="s">
+      <c r="W3" s="32" t="s">
         <v>91</v>
       </c>
       <c r="X3" s="7" t="s">
@@ -3132,7 +3145,7 @@
       <c r="BJ3" t="s">
         <v>130</v>
       </c>
-      <c r="BK3" s="34" t="s">
+      <c r="BK3" s="31" t="s">
         <v>131</v>
       </c>
       <c r="BL3" t="s">
@@ -3257,74 +3270,53 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G91"/>
+  <dimension ref="A1:G99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22:F27"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="E90" sqref="E90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="23.25" style="21" customWidth="1"/>
-    <col min="2" max="2" width="13.875" style="21" customWidth="1"/>
-    <col min="3" max="3" width="18.5" style="21" customWidth="1"/>
-    <col min="4" max="4" width="52.5" style="21" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="21"/>
+    <col min="1" max="1" width="23.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="52.5" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-    </row>
-    <row r="2" spans="1:4">
+    </row>
+    <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:4">
+    </row>
+    <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:4">
+    </row>
+    <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:4">
+    </row>
+    <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="22"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22" t="s">
+      <c r="A7" s="21"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21" t="s">
         <v>153</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="21" t="s">
         <v>154</v>
       </c>
     </row>
@@ -3338,12 +3330,11 @@
       <c r="C8" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1"/>
+    <row r="9" spans="2:4">
       <c r="B9" s="1" t="s">
         <v>94</v>
       </c>
@@ -3354,8 +3345,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1"/>
+    <row r="10" spans="2:4">
       <c r="B10" s="1" t="s">
         <v>95</v>
       </c>
@@ -3366,8 +3356,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1"/>
+    <row r="11" spans="2:4">
       <c r="B11" s="1" t="s">
         <v>97</v>
       </c>
@@ -3378,8 +3367,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1"/>
+    <row r="12" spans="2:4">
       <c r="B12" s="1" t="s">
         <v>99</v>
       </c>
@@ -3390,8 +3378,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="1"/>
+    <row r="13" spans="2:4">
       <c r="B13" s="1" t="s">
         <v>101</v>
       </c>
@@ -3403,13 +3390,13 @@
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="23"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23" t="s">
+      <c r="A14" s="21"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="D14" s="24"/>
-      <c r="F14" s="21" t="s">
+      <c r="D14" s="22"/>
+      <c r="F14" s="1" t="s">
         <v>168</v>
       </c>
     </row>
@@ -3429,13 +3416,12 @@
       <c r="F15" s="1">
         <v>320</v>
       </c>
-      <c r="G15" s="21">
+      <c r="G15" s="1">
         <f>SUM(F15:F21)</f>
         <v>1570</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="1"/>
+    <row r="16" spans="2:6">
       <c r="B16" s="1" t="s">
         <v>172</v>
       </c>
@@ -3447,8 +3433,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="1"/>
+    <row r="17" spans="2:6">
       <c r="B17" s="1" t="s">
         <v>173</v>
       </c>
@@ -3460,8 +3445,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="1"/>
+    <row r="18" spans="2:6">
       <c r="B18" s="1" t="s">
         <v>174</v>
       </c>
@@ -3473,8 +3457,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="1"/>
+    <row r="19" spans="2:6">
       <c r="B19" s="1" t="s">
         <v>175</v>
       </c>
@@ -3486,8 +3469,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="1"/>
+    <row r="20" spans="2:6">
       <c r="B20" s="1" t="s">
         <v>176</v>
       </c>
@@ -3499,8 +3481,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="1"/>
+    <row r="21" spans="2:6">
       <c r="B21" s="1" t="s">
         <v>177</v>
       </c>
@@ -3526,13 +3507,12 @@
       <c r="F22" s="1">
         <v>1.2</v>
       </c>
-      <c r="G22" s="21">
+      <c r="G22" s="1">
         <f>SUM(F22:F27)</f>
         <v>8.2</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="1"/>
+    <row r="23" spans="2:6">
       <c r="B23" s="1" t="s">
         <v>180</v>
       </c>
@@ -3544,8 +3524,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="1"/>
+    <row r="24" spans="2:6">
       <c r="B24" s="1" t="s">
         <v>181</v>
       </c>
@@ -3557,8 +3536,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="1"/>
+    <row r="25" spans="2:6">
       <c r="B25" s="1" t="s">
         <v>182</v>
       </c>
@@ -3570,8 +3548,7 @@
         <v>1.1</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="1"/>
+    <row r="26" spans="2:6">
       <c r="B26" s="1" t="s">
         <v>183</v>
       </c>
@@ -3583,8 +3560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="1"/>
+    <row r="27" spans="2:6">
       <c r="B27" s="1" t="s">
         <v>184</v>
       </c>
@@ -3598,396 +3574,389 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="F28" s="1"/>
-    </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="25"/>
-      <c r="B29" s="25"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
+      <c r="A29" s="12"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="21" t="s">
+      <c r="A30" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B30" s="26" t="s">
+      <c r="B30" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="C30" s="26"/>
-      <c r="D30" s="21" t="s">
+      <c r="D30" s="1" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="21" t="s">
+      <c r="A31" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B31" s="26" t="s">
+      <c r="B31" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="C31" s="26"/>
-      <c r="D31" s="21" t="s">
+      <c r="D31" s="1" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="21" t="s">
+      <c r="A32" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="B32" s="26" t="s">
+      <c r="B32" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="C32" s="26"/>
-      <c r="D32" s="21" t="s">
+      <c r="D32" s="1" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="21" t="s">
+      <c r="A33" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="B33" s="26" t="s">
+      <c r="B33" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="C33" s="26"/>
-      <c r="D33" s="21" t="s">
+      <c r="D33" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="27" t="s">
+    <row r="34" spans="1:1">
+      <c r="A34" s="23" t="s">
         <v>196</v>
       </c>
-      <c r="B34" s="26"/>
-      <c r="C34" s="26"/>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="26"/>
-      <c r="B35" s="26"/>
-      <c r="C35" s="26"/>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="26"/>
-      <c r="B36" s="26"/>
-      <c r="C36" s="26"/>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="26"/>
-      <c r="B37" s="26"/>
-      <c r="C37" s="26"/>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="26"/>
-      <c r="B38" s="26"/>
-      <c r="C38" s="26"/>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="26"/>
-      <c r="B39" s="26"/>
-      <c r="C39" s="26"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="21" t="s">
+      <c r="A40" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="D40" s="21">
+      <c r="D40" s="1">
         <f>(C15+C16+C17+C18+C19+C20+C21)*(C22+C23+C24+C25+C26+C27)</f>
         <v>16791</v>
       </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="21" t="s">
+      <c r="A41" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="D41" s="21">
+      <c r="D41" s="1">
         <f>240/4</f>
         <v>60</v>
       </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="21" t="s">
+      <c r="A42" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="D42" s="21">
+      <c r="D42" s="1">
         <f>D40/60</f>
         <v>279.85</v>
       </c>
     </row>
     <row r="43" spans="1:1">
-      <c r="A43" s="21" t="s">
+      <c r="A43" s="1" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="21" t="s">
+      <c r="A44" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="D44" s="21">
+      <c r="D44" s="1">
         <f>D40/42</f>
         <v>399.785714285714</v>
       </c>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="21" t="s">
+      <c r="A45" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="D45" s="21">
+      <c r="D45" s="1">
         <f>300/400</f>
         <v>0.75</v>
       </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="25"/>
-      <c r="B46" s="25"/>
-      <c r="C46" s="25"/>
-      <c r="D46" s="25"/>
+      <c r="A46" s="12"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
     </row>
     <row r="47" spans="1:1">
-      <c r="A47" s="21" t="s">
+      <c r="A47" s="1" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="21" t="s">
+      <c r="A48" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B48" s="21" t="s">
+      <c r="B48" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="D48" s="21" t="s">
+      <c r="D48" s="1" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="49" spans="2:4">
-      <c r="B49" s="21" t="s">
+      <c r="B49" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="D49" s="21" t="s">
+      <c r="D49" s="1" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="50" spans="2:5">
-      <c r="B50" s="21" t="s">
+      <c r="B50" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="D50" s="28" t="s">
+      <c r="D50" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="E50" s="28" t="s">
+      <c r="E50" s="24" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="21" t="s">
+      <c r="A51" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="C51" s="21" t="s">
+      <c r="C51" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="D51" s="21">
+      <c r="D51" s="1">
         <f>D40/125</f>
         <v>134.328</v>
       </c>
     </row>
     <row r="52" spans="3:4">
-      <c r="C52" s="21" t="s">
+      <c r="C52" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="D52" s="21">
+      <c r="D52" s="1">
         <f>D51/400</f>
         <v>0.33582</v>
       </c>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="25"/>
-      <c r="B53" s="25"/>
-      <c r="C53" s="25"/>
-      <c r="D53" s="25"/>
+      <c r="A53" s="12"/>
+      <c r="B53" s="12"/>
+      <c r="C53" s="12"/>
+      <c r="D53" s="12"/>
     </row>
     <row r="54" spans="1:1">
-      <c r="A54" s="21" t="s">
+      <c r="A54" s="1" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="21" t="s">
+      <c r="A55" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="B55" s="21" t="s">
+      <c r="B55" s="1" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="56" spans="2:2">
-      <c r="B56" s="21" t="s">
+      <c r="B56" s="1" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="57" spans="2:2">
-      <c r="B57" s="21" t="s">
+      <c r="B57" s="1" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="58" spans="2:2">
-      <c r="B58" s="21" t="s">
+      <c r="B58" s="1" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" s="21" t="s">
+      <c r="A59" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="B59" s="21">
+      <c r="B59" s="1">
         <f>G15*G22</f>
         <v>12874</v>
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="21" t="s">
+      <c r="A60" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="B60" s="29">
+      <c r="B60" s="25">
         <f>B59/125</f>
         <v>102.992</v>
       </c>
-      <c r="C60" s="21" t="s">
+      <c r="C60" s="1" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="25"/>
-      <c r="B62" s="25"/>
-      <c r="C62" s="25"/>
-      <c r="D62" s="25"/>
+      <c r="A62" s="12"/>
+      <c r="B62" s="12"/>
+      <c r="C62" s="12"/>
+      <c r="D62" s="12"/>
     </row>
     <row r="63" spans="1:1">
-      <c r="A63" s="21" t="s">
+      <c r="A63" s="1" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="64" spans="1:1">
-      <c r="A64" s="21" t="s">
+      <c r="A64" s="1" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="65" spans="2:2">
-      <c r="B65" s="21" t="s">
+      <c r="B65" s="1" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="66" spans="3:3">
-      <c r="C66" s="21" t="s">
+      <c r="C66" s="1" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="67" spans="3:3">
-      <c r="C67" s="21" t="s">
+      <c r="C67" s="1" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="68" spans="2:2">
-      <c r="B68" s="21" t="s">
+      <c r="B68" s="1" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="69" spans="3:3">
-      <c r="C69" s="21" t="s">
+      <c r="C69" s="1" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="70" spans="3:3">
-      <c r="C70" s="21" t="s">
+      <c r="C70" s="1" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="71" spans="3:4">
-      <c r="C71" s="21" t="s">
+      <c r="C71" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="D71" s="21" t="s">
+      <c r="D71" s="1" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="72" spans="4:4">
-      <c r="D72" s="30" t="s">
+      <c r="D72" s="26" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="73" spans="4:4">
-      <c r="D73" s="21" t="s">
+      <c r="D73" s="1" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="74" spans="1:1">
-      <c r="A74" s="21" t="s">
+      <c r="A74" s="1" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="75" spans="2:2">
-      <c r="B75" s="21" t="s">
+      <c r="B75" s="1" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="76" spans="3:3">
-      <c r="C76" s="21" t="s">
+      <c r="C76" s="1" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="77" spans="3:3">
-      <c r="C77" s="21" t="s">
+      <c r="C77" s="1" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="78" spans="3:3">
-      <c r="C78" s="21" t="s">
+      <c r="C78" s="1" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="79" spans="2:2">
-      <c r="B79" s="21" t="s">
+      <c r="B79" s="1" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="80" spans="3:3">
-      <c r="C80" s="21" t="s">
+      <c r="C80" s="1" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="82" spans="2:2">
-      <c r="B82" s="28" t="s">
+      <c r="B82" s="24" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="83" spans="2:2">
-      <c r="B83" s="21" t="s">
+      <c r="B83" s="1" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="84" spans="2:2">
-      <c r="B84" s="21" t="s">
+      <c r="B84" s="1" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="85" spans="3:3">
-      <c r="C85" s="21" t="s">
+      <c r="C85" s="1" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
-      <c r="A90" s="21" t="s">
+    <row r="87" spans="1:4">
+      <c r="A87" s="27"/>
+      <c r="B87" s="27"/>
+      <c r="C87" s="27"/>
+      <c r="D87" s="27"/>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="B90" s="21" t="s">
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="91" spans="2:2">
-      <c r="B91" s="21" t="s">
+    <row r="90" spans="1:1">
+      <c r="A90" s="1" t="s">
         <v>249</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2">
+      <c r="B92" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2">
+      <c r="B99" s="1" t="s">
+        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -4065,10 +4034,10 @@
         <v>0</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="J1" s="17" t="s">
         <v>0</v>
@@ -4077,52 +4046,52 @@
         <v>33</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="O1" s="7" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="P1" s="7" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="Q1" s="7" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="R1" s="7" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="S1" s="7" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="T1" s="7" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="U1" s="7" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="V1" s="7" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="W1" s="7" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="X1" s="8" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="Y1" s="20" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="Z1" s="20" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="AA1" s="20" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
     </row>
     <row r="2" spans="1:27">
@@ -4231,64 +4200,64 @@
         <v>76</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="J3" s="18" t="s">
         <v>103</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="Q3" s="7" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="R3" s="7" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="S3" s="7" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="T3" s="7" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="U3" s="7" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="V3" s="7" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="W3" s="7" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="X3" s="8" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="Y3" s="20" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="Z3" s="20" t="s">
         <v>95</v>
       </c>
       <c r="AA3" s="20" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
     </row>
     <row r="4" spans="2:27">
@@ -4296,13 +4265,13 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="F4" s="2" t="b">
         <v>1</v>
@@ -4330,7 +4299,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="Q4" s="1">
         <v>0.5</v>
@@ -4363,7 +4332,7 @@
         <v>1</v>
       </c>
       <c r="AA4" s="1" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
     </row>
     <row r="5" spans="2:27">
@@ -4371,13 +4340,13 @@
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="F5" s="2" t="b">
         <v>1</v>
@@ -4405,7 +4374,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="Q5" s="1">
         <v>0</v>
@@ -4438,7 +4407,7 @@
         <v>1</v>
       </c>
       <c r="AA5" s="1" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
     </row>
     <row r="6" spans="2:27">
@@ -4446,13 +4415,13 @@
         <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="F6" s="2" t="b">
         <v>1</v>
@@ -4480,7 +4449,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="Q6" s="1">
         <v>0</v>
@@ -4513,7 +4482,7 @@
         <v>0</v>
       </c>
       <c r="AA6" s="1" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
     </row>
     <row r="7" spans="2:27">
@@ -4521,13 +4490,13 @@
         <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="F7" s="2" t="b">
         <v>0</v>
@@ -4555,7 +4524,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="Q7" s="1">
         <v>0</v>
@@ -4588,7 +4557,7 @@
         <v>-20</v>
       </c>
       <c r="AA7" s="1" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
     </row>
     <row r="8" spans="2:27">
@@ -4596,13 +4565,13 @@
         <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="F8" s="2" t="b">
         <v>1</v>
@@ -4630,7 +4599,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="Q8" s="1">
         <v>0</v>
@@ -4663,7 +4632,7 @@
         <v>0</v>
       </c>
       <c r="AA8" s="1" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
     </row>
     <row r="9" spans="2:27">
@@ -4671,13 +4640,13 @@
         <v>6</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="F9" s="2" t="b">
         <v>1</v>
@@ -4705,7 +4674,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="Q9" s="1">
         <v>0</v>
@@ -4738,7 +4707,7 @@
         <v>0</v>
       </c>
       <c r="AA9" s="1" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
     </row>
     <row r="10" spans="2:27">
@@ -4746,13 +4715,13 @@
         <v>7</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="D10" s="1">
         <v>1</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="F10" s="2" t="b">
         <v>1</v>
@@ -4780,7 +4749,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="Q10" s="1">
         <v>0</v>
@@ -4813,7 +4782,7 @@
         <v>0</v>
       </c>
       <c r="AA10" s="1" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
     </row>
     <row r="11" spans="2:27">
@@ -4821,13 +4790,13 @@
         <v>8</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="D11" s="1">
         <v>1</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="F11" s="2" t="b">
         <v>1</v>
@@ -4855,7 +4824,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="Q11" s="1">
         <v>0</v>
@@ -4888,7 +4857,7 @@
         <v>100</v>
       </c>
       <c r="AA11" s="1" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
     </row>
     <row r="12" spans="2:26">
@@ -4896,13 +4865,13 @@
         <v>9</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="D12" s="1">
         <v>1</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="F12" s="2" t="b">
         <v>1</v>
@@ -4930,7 +4899,7 @@
         <v>0.2</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="Q12" s="1">
         <v>0</v>
@@ -4968,13 +4937,13 @@
         <v>10</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="D13" s="1">
         <v>1</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="F13" s="2" t="b">
         <v>0</v>
@@ -5002,7 +4971,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="Q13" s="1">
         <v>0</v>
@@ -5040,13 +5009,13 @@
         <v>11</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="D14" s="1">
         <v>1</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="F14" s="2" t="b">
         <v>1</v>
@@ -5074,7 +5043,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="Q14" s="1">
         <v>0</v>
@@ -5112,13 +5081,13 @@
         <v>12</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="D15" s="1">
         <v>2</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="F15" s="2" t="b">
         <v>1</v>
@@ -5146,7 +5115,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="Q15" s="1">
         <v>0</v>
@@ -5184,13 +5153,13 @@
         <v>13</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="D16" s="1">
         <v>2</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="F16" s="14"/>
       <c r="G16" s="15"/>
@@ -5225,13 +5194,13 @@
         <v>14</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="D17" s="1">
         <v>2</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="3"/>
@@ -5250,13 +5219,13 @@
         <v>15</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="D18" s="1">
         <v>2</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="3"/>
@@ -5275,13 +5244,13 @@
         <v>16</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="D19" s="1">
         <v>2</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="3"/>
@@ -5300,13 +5269,13 @@
         <v>17</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="D20" s="1">
         <v>2</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="3"/>
@@ -5325,13 +5294,13 @@
         <v>18</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="D21" s="1">
         <v>3</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="3"/>
@@ -5350,13 +5319,13 @@
         <v>19</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="D22" s="1">
         <v>3</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="3"/>
@@ -5375,13 +5344,13 @@
         <v>20</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="D23" s="1">
         <v>3</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="3"/>
@@ -5400,13 +5369,13 @@
         <v>21</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="D24" s="1">
         <v>3</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="3"/>
@@ -5425,13 +5394,13 @@
         <v>22</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="D25" s="1">
         <v>3</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="3"/>
@@ -5445,7 +5414,7 @@
         <v>1</v>
       </c>
       <c r="AA25" s="1" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
     </row>
     <row r="26" spans="2:26">
@@ -5453,13 +5422,13 @@
         <v>23</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="D26" s="1">
         <v>3</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="3"/>
@@ -5478,13 +5447,13 @@
         <v>24</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="D27" s="1">
         <v>3</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="3"/>
@@ -5503,13 +5472,13 @@
         <v>25</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="D28" s="1">
         <v>3</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="3"/>
@@ -5528,13 +5497,13 @@
         <v>26</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="D29" s="1">
         <v>4</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="3"/>
@@ -5553,13 +5522,13 @@
         <v>27</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="D30" s="1">
         <v>4</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="3"/>
@@ -5578,13 +5547,13 @@
         <v>28</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="D31" s="1">
         <v>4</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="3"/>
@@ -5603,13 +5572,13 @@
         <v>29</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="D32" s="1">
         <v>4</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="3"/>
@@ -5623,7 +5592,7 @@
         <v>0</v>
       </c>
       <c r="AA32" s="1" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
     </row>
     <row r="33" spans="2:26">
@@ -5631,13 +5600,13 @@
         <v>30</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="D33" s="1">
         <v>4</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="3"/>
@@ -5656,13 +5625,13 @@
         <v>31</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="D34" s="1">
         <v>4</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="3"/>
@@ -5681,13 +5650,13 @@
         <v>32</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="D35" s="1">
         <v>4</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="3"/>
@@ -5706,13 +5675,13 @@
         <v>33</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="D36" s="1">
         <v>4</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="3"/>
@@ -5731,13 +5700,13 @@
         <v>34</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="D37" s="1">
         <v>4</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="3"/>
@@ -5756,13 +5725,13 @@
         <v>35</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="D38" s="1">
         <v>4</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="3"/>

--- a/luban/卡牌表.xlsx
+++ b/luban/卡牌表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375" tabRatio="283" activeTab="1"/>
+    <workbookView windowHeight="17655" tabRatio="283"/>
   </bookViews>
   <sheets>
     <sheet name="卡牌" sheetId="2" r:id="rId1"/>
@@ -47,7 +47,7 @@
 3、教条卡，持续生效
 4、遗物卡
 5、敌方手牌卡
-6、地方场地卡</t>
+6、敌方场地卡</t>
         </r>
       </text>
     </comment>
@@ -223,7 +223,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="460">
   <si>
     <t>##var</t>
   </si>
@@ -642,7 +642,7 @@
     <t>assets/icon/card1</t>
   </si>
   <si>
-    <t>抽一张牌,同时获得一定信仰</t>
+    <t>少信仰消耗，抽一张牌，增加少量危险值</t>
   </si>
   <si>
     <t>抽两张牌</t>
@@ -651,22 +651,277 @@
     <t>assets/icon/card2</t>
   </si>
   <si>
+    <t>少信仰消耗，抽两张牌，杀掉少量非信徒</t>
+  </si>
+  <si>
     <t>抽三张牌</t>
   </si>
   <si>
     <t>assets/icon/card3</t>
   </si>
   <si>
-    <t>抽三张牌,之后随机丢弃一张</t>
-  </si>
-  <si>
-    <t>宗教party</t>
+    <t>中信仰消耗，抽三张牌，增加中等危险值，杀掉少量信徒</t>
+  </si>
+  <si>
+    <t>转化信徒小</t>
   </si>
   <si>
     <t>assets/icon/card4</t>
   </si>
   <si>
-    <t>每个城市往当前城市飞一架飞机</t>
+    <t>少信仰消耗，转化信徒小，增加中等危险值，降低少量理智</t>
+  </si>
+  <si>
+    <t>转化信徒中</t>
+  </si>
+  <si>
+    <t>assets/icon/card5</t>
+  </si>
+  <si>
+    <t>转化信徒中，降低中等理智，杀非信徒大，增加大量危险</t>
+  </si>
+  <si>
+    <t>转化信徒大</t>
+  </si>
+  <si>
+    <t>assets/icon/card6</t>
+  </si>
+  <si>
+    <t>大量仰消耗，转化信徒大，增加中等危险值</t>
+  </si>
+  <si>
+    <t>群体转化小</t>
+  </si>
+  <si>
+    <t>assets/icon/card7</t>
+  </si>
+  <si>
+    <t>中等仰消耗，群体转化极小，增加少量危险值，降低少量理智</t>
+  </si>
+  <si>
+    <t>群体转化中</t>
+  </si>
+  <si>
+    <t>assets/icon/card8</t>
+  </si>
+  <si>
+    <t>少信仰消耗，群体转化中，增加大量危险值</t>
+  </si>
+  <si>
+    <t>杀非信徒小</t>
+  </si>
+  <si>
+    <t>assets/icon/card9</t>
+  </si>
+  <si>
+    <t>少信仰消耗，杀非信徒小</t>
+  </si>
+  <si>
+    <t>杀非信徒大</t>
+  </si>
+  <si>
+    <t>assets/icon/card10</t>
+  </si>
+  <si>
+    <t>少信仰消耗，杀非信徒大</t>
+  </si>
+  <si>
+    <t>杀市民小</t>
+  </si>
+  <si>
+    <t>assets/icon/card11</t>
+  </si>
+  <si>
+    <t>少信仰消耗，杀市民小</t>
+  </si>
+  <si>
+    <t>杀市民大</t>
+  </si>
+  <si>
+    <t>assets/icon/card12</t>
+  </si>
+  <si>
+    <t>杀市民大，降低大量理智，增加大量危险值</t>
+  </si>
+  <si>
+    <t>群体杀市民大</t>
+  </si>
+  <si>
+    <t>assets/icon/card13</t>
+  </si>
+  <si>
+    <t>少信仰消耗，群体杀市民大</t>
+  </si>
+  <si>
+    <t>获取信仰小</t>
+  </si>
+  <si>
+    <t>assets/icon/card14</t>
+  </si>
+  <si>
+    <t>少信仰消耗，获取信仰小</t>
+  </si>
+  <si>
+    <t>获取信仰中</t>
+  </si>
+  <si>
+    <t>assets/icon/card15</t>
+  </si>
+  <si>
+    <t>少信仰消耗，获取信仰中</t>
+  </si>
+  <si>
+    <t>获取信仰大</t>
+  </si>
+  <si>
+    <t>assets/icon/card16</t>
+  </si>
+  <si>
+    <t>少信仰消耗，获取信仰大</t>
+  </si>
+  <si>
+    <t>群体获取信仰中</t>
+  </si>
+  <si>
+    <t>assets/icon/card17</t>
+  </si>
+  <si>
+    <t>少信仰消耗，群体获取信仰中</t>
+  </si>
+  <si>
+    <t>降低理智小</t>
+  </si>
+  <si>
+    <t>assets/icon/card18</t>
+  </si>
+  <si>
+    <t>少信仰消耗，降低理智小</t>
+  </si>
+  <si>
+    <t>降低理智中</t>
+  </si>
+  <si>
+    <t>assets/icon/card19</t>
+  </si>
+  <si>
+    <t>少信仰消耗，降低理智中</t>
+  </si>
+  <si>
+    <t>降低理智大</t>
+  </si>
+  <si>
+    <t>assets/icon/card20</t>
+  </si>
+  <si>
+    <t>少信仰消耗，降低理智大</t>
+  </si>
+  <si>
+    <t>群体降低理智中</t>
+  </si>
+  <si>
+    <t>assets/icon/card21</t>
+  </si>
+  <si>
+    <t>少信仰消耗，群体降低理智中</t>
+  </si>
+  <si>
+    <t>降低危险小</t>
+  </si>
+  <si>
+    <t>assets/icon/card22</t>
+  </si>
+  <si>
+    <t>少信仰消耗，降低危险小</t>
+  </si>
+  <si>
+    <t>降低危险中</t>
+  </si>
+  <si>
+    <t>assets/icon/card23</t>
+  </si>
+  <si>
+    <t>少信仰消耗，降低危险中</t>
+  </si>
+  <si>
+    <t>降低危险大</t>
+  </si>
+  <si>
+    <t>assets/icon/card24</t>
+  </si>
+  <si>
+    <t>少信仰消耗，降低危险大</t>
+  </si>
+  <si>
+    <t>转化信徒百分比小</t>
+  </si>
+  <si>
+    <t>assets/icon/card25</t>
+  </si>
+  <si>
+    <t>少信仰消耗，转化信徒百分比小</t>
+  </si>
+  <si>
+    <t>群体转化百分比小</t>
+  </si>
+  <si>
+    <t>assets/icon/card26</t>
+  </si>
+  <si>
+    <t>少信仰消耗，群体转化百分比小</t>
+  </si>
+  <si>
+    <t>群体杀市民百分比小</t>
+  </si>
+  <si>
+    <t>assets/icon/card27</t>
+  </si>
+  <si>
+    <t>少信仰消耗，群体杀市民小</t>
+  </si>
+  <si>
+    <t>群体获取信仰百分比中</t>
+  </si>
+  <si>
+    <t>assets/icon/card28</t>
+  </si>
+  <si>
+    <t>群体获取信仰百分比大</t>
+  </si>
+  <si>
+    <t>assets/icon/card29</t>
+  </si>
+  <si>
+    <t>少信仰消耗，群体获取信仰大</t>
+  </si>
+  <si>
+    <t>群体降低理智百分比小</t>
+  </si>
+  <si>
+    <t>assets/icon/card30</t>
+  </si>
+  <si>
+    <t>少信仰消耗，群体降低理智小</t>
+  </si>
+  <si>
+    <t>群体降低理智百分比中</t>
+  </si>
+  <si>
+    <t>assets/icon/card31</t>
+  </si>
+  <si>
+    <t>摧毁城市</t>
+  </si>
+  <si>
+    <t>assets/icon/card32</t>
+  </si>
+  <si>
+    <t>极大量信仰消耗，摧毁城市，杀城市中所有人，增加极大量危险值</t>
+  </si>
+  <si>
+    <t>消耗信仰</t>
+  </si>
+  <si>
+    <t>消耗中等信仰，杀信徒小</t>
   </si>
   <si>
     <t>优先思考卡牌的条件字段有哪些</t>
@@ -1025,7 +1280,13 @@
     <t>通用流</t>
   </si>
   <si>
+    <t>可以兼顾4种获胜方式的标准套牌，各种策略相对均衡，没有明显强势的地方也没有明显的弱势</t>
+  </si>
+  <si>
     <t>交通流</t>
+  </si>
+  <si>
+    <t>全部都是事件牌，同时全部都是群体百分比效果，加强了信徒的转化效率，但是危险值比较容易上涨</t>
   </si>
   <si>
     <t>relicInHand</t>
@@ -1603,13 +1864,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.8"/>
+        <fgColor theme="4" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.8"/>
+        <fgColor theme="9" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2071,7 +2332,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2156,20 +2417,26 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2482,68 +2749,72 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:BP7"/>
+  <dimension ref="A1:BP38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="3" max="3" width="26.125" customWidth="1"/>
-    <col min="6" max="6" width="20.25" customWidth="1"/>
-    <col min="7" max="7" width="27.875" customWidth="1"/>
-    <col min="8" max="8" width="9" style="28"/>
-    <col min="9" max="9" width="11" customWidth="1"/>
-    <col min="10" max="10" width="10.5" customWidth="1"/>
-    <col min="11" max="11" width="10.75" customWidth="1"/>
-    <col min="12" max="12" width="10.375" customWidth="1"/>
-    <col min="13" max="13" width="11.125" customWidth="1"/>
-    <col min="14" max="16" width="11.375" customWidth="1"/>
-    <col min="17" max="17" width="12.625" customWidth="1"/>
-    <col min="18" max="18" width="12.5" customWidth="1"/>
-    <col min="19" max="19" width="12.875" customWidth="1"/>
-    <col min="20" max="20" width="14" customWidth="1"/>
-    <col min="21" max="22" width="15.875" customWidth="1"/>
-    <col min="23" max="23" width="11.625" style="29" customWidth="1"/>
-    <col min="24" max="24" width="9.75" customWidth="1"/>
-    <col min="25" max="29" width="12.25" customWidth="1"/>
-    <col min="30" max="30" width="15.875" customWidth="1"/>
-    <col min="31" max="33" width="12.25" customWidth="1"/>
-    <col min="34" max="34" width="14.625" customWidth="1"/>
-    <col min="35" max="35" width="9" style="30"/>
-    <col min="36" max="36" width="14.25" customWidth="1"/>
-    <col min="38" max="38" width="11" customWidth="1"/>
-    <col min="39" max="39" width="12.375" customWidth="1"/>
-    <col min="40" max="40" width="15" customWidth="1"/>
-    <col min="41" max="41" width="10.25" customWidth="1"/>
-    <col min="42" max="42" width="13.75" customWidth="1"/>
-    <col min="43" max="43" width="15.125" customWidth="1"/>
-    <col min="44" max="44" width="17.625" customWidth="1"/>
-    <col min="45" max="45" width="10.125" customWidth="1"/>
-    <col min="46" max="46" width="10.625" customWidth="1"/>
-    <col min="47" max="47" width="14.25" customWidth="1"/>
-    <col min="48" max="48" width="15" customWidth="1"/>
-    <col min="49" max="49" width="12.75" customWidth="1"/>
-    <col min="50" max="50" width="13.25" customWidth="1"/>
-    <col min="51" max="51" width="15.5" customWidth="1"/>
-    <col min="52" max="52" width="17.625" customWidth="1"/>
-    <col min="53" max="53" width="12.125" customWidth="1"/>
-    <col min="54" max="54" width="15.625" customWidth="1"/>
-    <col min="55" max="55" width="12.625" customWidth="1"/>
-    <col min="56" max="56" width="18" customWidth="1"/>
-    <col min="57" max="57" width="13.375" customWidth="1"/>
-    <col min="58" max="58" width="15" customWidth="1"/>
-    <col min="59" max="59" width="13.25" customWidth="1"/>
-    <col min="60" max="60" width="16.625" customWidth="1"/>
-    <col min="61" max="61" width="12.375" customWidth="1"/>
-    <col min="62" max="62" width="15.125" customWidth="1"/>
-    <col min="63" max="63" width="10.125" style="31" customWidth="1"/>
-    <col min="64" max="64" width="16" customWidth="1"/>
-    <col min="65" max="65" width="19.125" customWidth="1"/>
-    <col min="66" max="66" width="10.75" customWidth="1"/>
-    <col min="67" max="67" width="13.625" customWidth="1"/>
-    <col min="68" max="68" width="13.5" customWidth="1"/>
+    <col min="1" max="2" width="9" style="29"/>
+    <col min="3" max="3" width="25.25" style="29" customWidth="1"/>
+    <col min="4" max="5" width="9" style="29"/>
+    <col min="6" max="6" width="20.25" style="29" customWidth="1"/>
+    <col min="7" max="7" width="57.75" style="29" customWidth="1"/>
+    <col min="8" max="8" width="9" style="30"/>
+    <col min="9" max="9" width="11" style="29" customWidth="1"/>
+    <col min="10" max="10" width="10.5" style="29" customWidth="1"/>
+    <col min="11" max="11" width="10.75" style="29" customWidth="1"/>
+    <col min="12" max="12" width="10.375" style="29" customWidth="1"/>
+    <col min="13" max="13" width="11.125" style="29" customWidth="1"/>
+    <col min="14" max="16" width="11.375" style="29" customWidth="1"/>
+    <col min="17" max="17" width="12.625" style="29" customWidth="1"/>
+    <col min="18" max="18" width="12.5" style="29" customWidth="1"/>
+    <col min="19" max="19" width="12.875" style="29" customWidth="1"/>
+    <col min="20" max="20" width="14" style="29" customWidth="1"/>
+    <col min="21" max="22" width="15.875" style="29" customWidth="1"/>
+    <col min="23" max="23" width="11.625" style="31" customWidth="1"/>
+    <col min="24" max="24" width="9.75" style="29" customWidth="1"/>
+    <col min="25" max="29" width="12.25" style="29" customWidth="1"/>
+    <col min="30" max="30" width="15.875" style="29" customWidth="1"/>
+    <col min="31" max="33" width="12.25" style="29" customWidth="1"/>
+    <col min="34" max="34" width="14.625" style="29" customWidth="1"/>
+    <col min="35" max="35" width="9" style="32"/>
+    <col min="36" max="36" width="14.25" style="29" customWidth="1"/>
+    <col min="37" max="37" width="9" style="29"/>
+    <col min="38" max="38" width="11" style="29" customWidth="1"/>
+    <col min="39" max="39" width="12.375" style="29" customWidth="1"/>
+    <col min="40" max="40" width="15" style="29" customWidth="1"/>
+    <col min="41" max="41" width="10.25" style="29" customWidth="1"/>
+    <col min="42" max="42" width="13.75" style="29" customWidth="1"/>
+    <col min="43" max="43" width="15.125" style="29" customWidth="1"/>
+    <col min="44" max="44" width="17.625" style="29" customWidth="1"/>
+    <col min="45" max="45" width="10.125" style="29" customWidth="1"/>
+    <col min="46" max="46" width="10.625" style="29" customWidth="1"/>
+    <col min="47" max="47" width="14.25" style="29" customWidth="1"/>
+    <col min="48" max="48" width="15" style="29" customWidth="1"/>
+    <col min="49" max="49" width="12.75" style="29" customWidth="1"/>
+    <col min="50" max="50" width="13.25" style="29" customWidth="1"/>
+    <col min="51" max="51" width="15.5" style="29" customWidth="1"/>
+    <col min="52" max="52" width="17.625" style="29" customWidth="1"/>
+    <col min="53" max="53" width="12.125" style="29" customWidth="1"/>
+    <col min="54" max="54" width="15.625" style="29" customWidth="1"/>
+    <col min="55" max="55" width="12.625" style="29" customWidth="1"/>
+    <col min="56" max="56" width="18" style="29" customWidth="1"/>
+    <col min="57" max="57" width="13.375" style="29" customWidth="1"/>
+    <col min="58" max="58" width="15" style="29" customWidth="1"/>
+    <col min="59" max="59" width="13.25" style="29" customWidth="1"/>
+    <col min="60" max="60" width="16.625" style="29" customWidth="1"/>
+    <col min="61" max="61" width="12.375" style="29" customWidth="1"/>
+    <col min="62" max="62" width="15.125" style="29" customWidth="1"/>
+    <col min="63" max="63" width="10.125" style="28" customWidth="1"/>
+    <col min="64" max="64" width="16" style="29" customWidth="1"/>
+    <col min="65" max="65" width="19.125" style="29" customWidth="1"/>
+    <col min="66" max="66" width="10.75" style="29" customWidth="1"/>
+    <col min="67" max="67" width="13.625" style="29" customWidth="1"/>
+    <col min="68" max="68" width="13.5" style="29" customWidth="1"/>
+    <col min="69" max="16384" width="9" style="29"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:68">
@@ -2613,7 +2884,7 @@
       <c r="V1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="32" t="s">
+      <c r="W1" s="33" t="s">
         <v>0</v>
       </c>
       <c r="X1" s="7" t="s">
@@ -2661,94 +2932,94 @@
       <c r="AL1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AM1" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AN1" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AO1" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AP1" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AQ1" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AR1" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AS1" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AT1" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AU1" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AV1" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AW1" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AX1" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AY1" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="AZ1" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BA1" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BB1" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BC1" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BD1" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BE1" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BF1" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BG1" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BH1" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BI1" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BJ1" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="BK1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="BL1" t="s">
+      <c r="BK1" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="BL1" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BM1" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BN1" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BO1" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BP1" s="29" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2819,40 +3090,40 @@
       <c r="V2" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="W2" s="32" t="s">
+      <c r="W2" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="X2" t="s">
+      <c r="X2" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Y2" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="Z2" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AA2" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AB2" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AC2" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AD2" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AE2" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AF2" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AG2" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AH2" s="29" t="s">
         <v>68</v>
       </c>
       <c r="AI2" s="17" t="s">
@@ -2867,94 +3138,94 @@
       <c r="AL2" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="AM2" t="s">
+      <c r="AM2" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="AN2" t="s">
+      <c r="AN2" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AO2" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="AP2" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="AQ2" t="s">
+      <c r="AQ2" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="AR2" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="AS2" t="s">
+      <c r="AS2" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="AT2" t="s">
+      <c r="AT2" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="AU2" t="s">
+      <c r="AU2" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="AV2" t="s">
+      <c r="AV2" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="AW2" t="s">
+      <c r="AW2" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="AX2" t="s">
+      <c r="AX2" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="AY2" t="s">
+      <c r="AY2" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="AZ2" t="s">
+      <c r="AZ2" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="BA2" t="s">
+      <c r="BA2" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="BB2" t="s">
+      <c r="BB2" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="BC2" t="s">
+      <c r="BC2" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="BD2" t="s">
+      <c r="BD2" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="BE2" t="s">
+      <c r="BE2" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="BF2" t="s">
+      <c r="BF2" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="BG2" t="s">
+      <c r="BG2" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="BH2" t="s">
+      <c r="BH2" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="BI2" t="s">
+      <c r="BI2" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="BJ2" t="s">
+      <c r="BJ2" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="BK2" s="31" t="s">
+      <c r="BK2" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="BL2" t="s">
+      <c r="BL2" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="BM2" t="s">
+      <c r="BM2" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="BN2" t="s">
+      <c r="BN2" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="BO2" t="s">
+      <c r="BO2" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="BP2" t="s">
+      <c r="BP2" s="29" t="s">
         <v>65</v>
       </c>
     </row>
@@ -3025,7 +3296,7 @@
       <c r="V3" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="W3" s="32" t="s">
+      <c r="W3" s="33" t="s">
         <v>91</v>
       </c>
       <c r="X3" s="7" t="s">
@@ -3073,190 +3344,843 @@
       <c r="AL3" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="AM3" t="s">
+      <c r="AM3" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="AN3" t="s">
+      <c r="AN3" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="AO3" t="s">
+      <c r="AO3" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="AP3" t="s">
+      <c r="AP3" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="AQ3" t="s">
+      <c r="AQ3" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="AR3" t="s">
+      <c r="AR3" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="AS3" t="s">
+      <c r="AS3" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="AT3" t="s">
+      <c r="AT3" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="AU3" t="s">
+      <c r="AU3" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="AV3" t="s">
+      <c r="AV3" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="AW3" t="s">
+      <c r="AW3" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="AX3" t="s">
+      <c r="AX3" s="29" t="s">
         <v>118</v>
       </c>
-      <c r="AY3" t="s">
+      <c r="AY3" s="29" t="s">
         <v>119</v>
       </c>
-      <c r="AZ3" t="s">
+      <c r="AZ3" s="29" t="s">
         <v>120</v>
       </c>
-      <c r="BA3" t="s">
+      <c r="BA3" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="BB3" t="s">
+      <c r="BB3" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="BC3" t="s">
+      <c r="BC3" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="BD3" t="s">
+      <c r="BD3" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="BE3" t="s">
+      <c r="BE3" s="29" t="s">
         <v>125</v>
       </c>
-      <c r="BF3" t="s">
+      <c r="BF3" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="BG3" t="s">
+      <c r="BG3" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="BH3" t="s">
+      <c r="BH3" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="BI3" t="s">
+      <c r="BI3" s="29" t="s">
         <v>129</v>
       </c>
-      <c r="BJ3" t="s">
+      <c r="BJ3" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="BK3" s="31" t="s">
+      <c r="BK3" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="BL3" t="s">
+      <c r="BL3" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="BM3" t="s">
+      <c r="BM3" s="29" t="s">
         <v>133</v>
       </c>
-      <c r="BN3" t="s">
+      <c r="BN3" s="29" t="s">
         <v>134</v>
       </c>
-      <c r="BO3" t="s">
+      <c r="BO3" s="29" t="s">
         <v>135</v>
       </c>
-      <c r="BP3" t="s">
+      <c r="BP3" s="29" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="4" spans="2:38">
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B4" s="29">
+        <v>1</v>
+      </c>
+      <c r="C4" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="D4" s="29">
+        <v>1</v>
+      </c>
+      <c r="E4" s="29">
+        <v>1</v>
+      </c>
+      <c r="F4" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="29" t="s">
         <v>139</v>
       </c>
-      <c r="AK4">
-        <v>1</v>
-      </c>
-      <c r="AL4">
+      <c r="AK4" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL4" s="29">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:38">
-      <c r="B5">
+      <c r="B5" s="29">
         <v>2</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="29" t="s">
         <v>140</v>
       </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="D5" s="29">
+        <v>1</v>
+      </c>
+      <c r="E5" s="29">
+        <v>1</v>
+      </c>
+      <c r="F5" s="29" t="s">
         <v>141</v>
       </c>
-      <c r="G5" t="s">
-        <v>140</v>
-      </c>
-      <c r="AK5">
+      <c r="G5" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="AK5" s="29">
         <v>2</v>
       </c>
-      <c r="AL5">
+      <c r="AL5" s="29">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="2:38">
-      <c r="B6">
+      <c r="B6" s="29">
         <v>3</v>
       </c>
-      <c r="C6" t="s">
-        <v>142</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="C6" s="29" t="s">
         <v>143</v>
       </c>
-      <c r="G6" t="s">
+      <c r="D6" s="29">
+        <v>1</v>
+      </c>
+      <c r="E6" s="29">
+        <v>1</v>
+      </c>
+      <c r="F6" s="29" t="s">
         <v>144</v>
       </c>
-      <c r="AK6">
+      <c r="G6" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="AK6" s="29">
         <v>3</v>
       </c>
-      <c r="AL6">
+      <c r="AL6" s="29">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7">
+      <c r="B7" s="29">
         <v>4</v>
       </c>
-      <c r="C7" t="s">
-        <v>145</v>
-      </c>
-      <c r="E7">
+      <c r="C7" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="D7" s="29">
+        <v>1</v>
+      </c>
+      <c r="E7" s="29">
+        <v>1</v>
+      </c>
+      <c r="F7" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="G7" s="29" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="29">
+        <v>5</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="D8" s="29">
+        <v>4</v>
+      </c>
+      <c r="E8" s="29">
+        <v>1</v>
+      </c>
+      <c r="F8" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="G8" s="29" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9" s="29">
+        <v>6</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="D9" s="29">
         <v>2</v>
       </c>
-      <c r="F7" t="s">
-        <v>146</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="E9" s="29">
+        <v>1</v>
+      </c>
+      <c r="F9" s="29" t="s">
+        <v>153</v>
+      </c>
+      <c r="G9" s="29" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="10" s="28" customFormat="1" spans="2:23">
+      <c r="B10" s="28">
+        <v>7</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="D10" s="28">
+        <v>3</v>
+      </c>
+      <c r="E10" s="28">
+        <v>1</v>
+      </c>
+      <c r="F10" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="G10" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="28"/>
+      <c r="O10" s="28"/>
+      <c r="P10" s="28"/>
+      <c r="Q10" s="28"/>
+      <c r="R10" s="28"/>
+      <c r="S10" s="28"/>
+      <c r="T10" s="28"/>
+      <c r="U10" s="28"/>
+      <c r="V10" s="28"/>
+      <c r="W10" s="34"/>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11" s="29">
+        <v>8</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="D11" s="29">
+        <v>2</v>
+      </c>
+      <c r="E11" s="29">
+        <v>1</v>
+      </c>
+      <c r="F11" s="29" t="s">
+        <v>159</v>
+      </c>
+      <c r="G11" s="29" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="B12" s="29">
+        <v>9</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="D12" s="29">
+        <v>1</v>
+      </c>
+      <c r="E12" s="29">
+        <v>1</v>
+      </c>
+      <c r="F12" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="G12" s="29" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="B13" s="29">
+        <v>10</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>164</v>
+      </c>
+      <c r="D13" s="29">
+        <v>1</v>
+      </c>
+      <c r="E13" s="29">
+        <v>1</v>
+      </c>
+      <c r="F13" s="29" t="s">
+        <v>165</v>
+      </c>
+      <c r="G13" s="29" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="B14" s="29">
+        <v>11</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="D14" s="29">
+        <v>1</v>
+      </c>
+      <c r="E14" s="29">
+        <v>1</v>
+      </c>
+      <c r="F14" s="29" t="s">
+        <v>168</v>
+      </c>
+      <c r="G14" s="29" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7">
+      <c r="B15" s="29">
+        <v>12</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="D15" s="29">
+        <v>4</v>
+      </c>
+      <c r="E15" s="29">
+        <v>1</v>
+      </c>
+      <c r="F15" s="29" t="s">
+        <v>171</v>
+      </c>
+      <c r="G15" s="29" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7">
+      <c r="B16" s="29">
+        <v>13</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="D16" s="29">
+        <v>2</v>
+      </c>
+      <c r="E16" s="29">
+        <v>1</v>
+      </c>
+      <c r="F16" s="29" t="s">
+        <v>174</v>
+      </c>
+      <c r="G16" s="29" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17" s="29">
+        <v>14</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="D17" s="29">
+        <v>1</v>
+      </c>
+      <c r="E17" s="29">
+        <v>1</v>
+      </c>
+      <c r="F17" s="29" t="s">
+        <v>177</v>
+      </c>
+      <c r="G17" s="29" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18" s="29">
+        <v>15</v>
+      </c>
+      <c r="C18" s="29" t="s">
+        <v>179</v>
+      </c>
+      <c r="D18" s="29">
+        <v>1</v>
+      </c>
+      <c r="E18" s="29">
+        <v>1</v>
+      </c>
+      <c r="F18" s="29" t="s">
+        <v>180</v>
+      </c>
+      <c r="G18" s="29" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19" s="29">
+        <v>16</v>
+      </c>
+      <c r="C19" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="D19" s="29">
+        <v>1</v>
+      </c>
+      <c r="E19" s="29">
+        <v>1</v>
+      </c>
+      <c r="F19" s="29" t="s">
+        <v>183</v>
+      </c>
+      <c r="G19" s="29" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="20" s="28" customFormat="1" spans="2:23">
+      <c r="B20" s="28">
+        <v>17</v>
+      </c>
+      <c r="C20" s="28" t="s">
+        <v>185</v>
+      </c>
+      <c r="D20" s="28">
+        <v>3</v>
+      </c>
+      <c r="E20" s="28">
+        <v>1</v>
+      </c>
+      <c r="F20" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="G20" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="28"/>
+      <c r="M20" s="28"/>
+      <c r="N20" s="28"/>
+      <c r="O20" s="28"/>
+      <c r="P20" s="28"/>
+      <c r="Q20" s="28"/>
+      <c r="R20" s="28"/>
+      <c r="S20" s="28"/>
+      <c r="T20" s="28"/>
+      <c r="U20" s="28"/>
+      <c r="V20" s="28"/>
+      <c r="W20" s="34"/>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" s="29">
+        <v>18</v>
+      </c>
+      <c r="C21" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="D21" s="29">
+        <v>1</v>
+      </c>
+      <c r="E21" s="29">
+        <v>1</v>
+      </c>
+      <c r="F21" s="29" t="s">
+        <v>189</v>
+      </c>
+      <c r="G21" s="29" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22" s="29">
+        <v>19</v>
+      </c>
+      <c r="C22" s="29" t="s">
+        <v>191</v>
+      </c>
+      <c r="D22" s="29">
+        <v>1</v>
+      </c>
+      <c r="E22" s="29">
+        <v>1</v>
+      </c>
+      <c r="F22" s="29" t="s">
+        <v>192</v>
+      </c>
+      <c r="G22" s="29" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7">
+      <c r="B23" s="29">
+        <v>20</v>
+      </c>
+      <c r="C23" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="D23" s="29">
+        <v>2</v>
+      </c>
+      <c r="E23" s="29">
+        <v>1</v>
+      </c>
+      <c r="F23" s="29" t="s">
+        <v>195</v>
+      </c>
+      <c r="G23" s="29" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7">
+      <c r="B24" s="29">
+        <v>21</v>
+      </c>
+      <c r="C24" s="29" t="s">
+        <v>197</v>
+      </c>
+      <c r="D24" s="29">
+        <v>2</v>
+      </c>
+      <c r="E24" s="29">
+        <v>1</v>
+      </c>
+      <c r="F24" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="G24" s="29" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7">
+      <c r="B25" s="29">
+        <v>22</v>
+      </c>
+      <c r="C25" s="29" t="s">
+        <v>200</v>
+      </c>
+      <c r="D25" s="29">
+        <v>4</v>
+      </c>
+      <c r="E25" s="29">
+        <v>1</v>
+      </c>
+      <c r="F25" s="29" t="s">
+        <v>201</v>
+      </c>
+      <c r="G25" s="29" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7">
+      <c r="B26" s="29">
+        <v>23</v>
+      </c>
+      <c r="C26" s="29" t="s">
+        <v>203</v>
+      </c>
+      <c r="D26" s="29">
+        <v>1</v>
+      </c>
+      <c r="E26" s="29">
+        <v>1</v>
+      </c>
+      <c r="F26" s="29" t="s">
+        <v>204</v>
+      </c>
+      <c r="G26" s="29" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="27" s="28" customFormat="1" spans="2:23">
+      <c r="B27" s="28">
+        <v>24</v>
+      </c>
+      <c r="C27" s="28" t="s">
+        <v>206</v>
+      </c>
+      <c r="D27" s="28">
+        <v>3</v>
+      </c>
+      <c r="E27" s="28">
+        <v>1</v>
+      </c>
+      <c r="F27" s="28" t="s">
+        <v>207</v>
+      </c>
+      <c r="G27" s="28" t="s">
+        <v>208</v>
+      </c>
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="28"/>
+      <c r="L27" s="28"/>
+      <c r="M27" s="28"/>
+      <c r="N27" s="28"/>
+      <c r="O27" s="28"/>
+      <c r="P27" s="28"/>
+      <c r="Q27" s="28"/>
+      <c r="R27" s="28"/>
+      <c r="S27" s="28"/>
+      <c r="T27" s="28"/>
+      <c r="U27" s="28"/>
+      <c r="V27" s="28"/>
+      <c r="W27" s="34"/>
+    </row>
+    <row r="28" spans="2:7">
+      <c r="B28" s="29">
+        <v>25</v>
+      </c>
+      <c r="C28" s="29" t="s">
+        <v>209</v>
+      </c>
+      <c r="D28" s="29">
+        <v>1</v>
+      </c>
+      <c r="E28" s="29">
+        <v>2</v>
+      </c>
+      <c r="F28" s="29" t="s">
+        <v>210</v>
+      </c>
+      <c r="G28" s="29" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7">
+      <c r="B29" s="29">
+        <v>26</v>
+      </c>
+      <c r="C29" s="29" t="s">
+        <v>212</v>
+      </c>
+      <c r="D29" s="29">
+        <v>1</v>
+      </c>
+      <c r="E29" s="29">
+        <v>2</v>
+      </c>
+      <c r="F29" s="29" t="s">
+        <v>213</v>
+      </c>
+      <c r="G29" s="29" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7">
+      <c r="B30" s="29">
+        <v>27</v>
+      </c>
+      <c r="C30" s="29" t="s">
+        <v>215</v>
+      </c>
+      <c r="D30" s="29">
+        <v>1</v>
+      </c>
+      <c r="E30" s="29">
+        <v>2</v>
+      </c>
+      <c r="F30" s="29" t="s">
+        <v>216</v>
+      </c>
+      <c r="G30" s="29" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7">
+      <c r="B31" s="29">
+        <v>28</v>
+      </c>
+      <c r="C31" s="29" t="s">
+        <v>218</v>
+      </c>
+      <c r="D31" s="29">
+        <v>1</v>
+      </c>
+      <c r="E31" s="29">
+        <v>2</v>
+      </c>
+      <c r="F31" s="29" t="s">
+        <v>219</v>
+      </c>
+      <c r="G31" s="29" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7">
+      <c r="B32" s="29">
+        <v>29</v>
+      </c>
+      <c r="C32" s="29" t="s">
+        <v>220</v>
+      </c>
+      <c r="D32" s="29">
+        <v>1</v>
+      </c>
+      <c r="E32" s="29">
+        <v>2</v>
+      </c>
+      <c r="F32" s="29" t="s">
+        <v>221</v>
+      </c>
+      <c r="G32" s="29" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7">
+      <c r="B33" s="29">
+        <v>30</v>
+      </c>
+      <c r="C33" s="29" t="s">
+        <v>223</v>
+      </c>
+      <c r="D33" s="29">
+        <v>1</v>
+      </c>
+      <c r="E33" s="29">
+        <v>2</v>
+      </c>
+      <c r="F33" s="29" t="s">
+        <v>224</v>
+      </c>
+      <c r="G33" s="29" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7">
+      <c r="B34" s="29">
+        <v>31</v>
+      </c>
+      <c r="C34" s="29" t="s">
+        <v>226</v>
+      </c>
+      <c r="D34" s="29">
+        <v>1</v>
+      </c>
+      <c r="E34" s="29">
+        <v>2</v>
+      </c>
+      <c r="F34" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="G34" s="29" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7">
+      <c r="B35" s="29">
+        <v>32</v>
+      </c>
+      <c r="C35" s="29" t="s">
+        <v>228</v>
+      </c>
+      <c r="D35" s="29">
+        <v>2</v>
+      </c>
+      <c r="E35" s="29">
+        <v>1</v>
+      </c>
+      <c r="F35" s="29" t="s">
+        <v>229</v>
+      </c>
+      <c r="G35" s="29" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7">
+      <c r="B36" s="29">
+        <v>33</v>
+      </c>
+      <c r="C36" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="D36" s="29">
+        <v>5</v>
+      </c>
+      <c r="E36" s="29">
+        <v>1</v>
+      </c>
+      <c r="F36" s="29" t="s">
         <v>147</v>
+      </c>
+      <c r="G36" s="29" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="37" spans="3:7">
+      <c r="C37" s="29" t="s">
+        <v>231</v>
+      </c>
+      <c r="D37" s="29">
+        <v>5</v>
+      </c>
+      <c r="G37" s="29" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="38" spans="3:7">
+      <c r="C38" s="29" t="s">
+        <v>231</v>
+      </c>
+      <c r="D38" s="29">
+        <v>6</v>
+      </c>
+      <c r="G38" s="29" t="s">
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -3270,10 +4194,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G99"/>
+  <dimension ref="A1:G100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="E90" sqref="E90"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="C101" sqref="C101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -3287,51 +4211,51 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>148</v>
+        <v>233</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>149</v>
+        <v>234</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>150</v>
+        <v>235</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>151</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>152</v>
+        <v>237</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="21"/>
       <c r="B7" s="21"/>
       <c r="C7" s="21" t="s">
-        <v>153</v>
+        <v>238</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>154</v>
+        <v>239</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>155</v>
+        <v>240</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>92</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>156</v>
+        <v>241</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>157</v>
+        <v>242</v>
       </c>
     </row>
     <row r="9" spans="2:4">
@@ -3339,10 +4263,10 @@
         <v>94</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>158</v>
+        <v>243</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>159</v>
+        <v>244</v>
       </c>
     </row>
     <row r="10" spans="2:4">
@@ -3350,10 +4274,10 @@
         <v>95</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>158</v>
+        <v>243</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>160</v>
+        <v>245</v>
       </c>
     </row>
     <row r="11" spans="2:4">
@@ -3361,10 +4285,10 @@
         <v>97</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>161</v>
+        <v>246</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>162</v>
+        <v>247</v>
       </c>
     </row>
     <row r="12" spans="2:4">
@@ -3372,10 +4296,10 @@
         <v>99</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>163</v>
+        <v>248</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>164</v>
+        <v>249</v>
       </c>
     </row>
     <row r="13" spans="2:4">
@@ -3383,35 +4307,35 @@
         <v>101</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>165</v>
+        <v>250</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>166</v>
+        <v>251</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="21"/>
       <c r="B14" s="21"/>
       <c r="C14" s="21" t="s">
-        <v>167</v>
+        <v>252</v>
       </c>
       <c r="D14" s="22"/>
       <c r="F14" s="1" t="s">
-        <v>168</v>
+        <v>253</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>169</v>
+        <v>254</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>170</v>
+        <v>255</v>
       </c>
       <c r="C15" s="1">
         <v>450</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>171</v>
+        <v>256</v>
       </c>
       <c r="F15" s="1">
         <v>320</v>
@@ -3423,7 +4347,7 @@
     </row>
     <row r="16" spans="2:6">
       <c r="B16" s="1" t="s">
-        <v>172</v>
+        <v>257</v>
       </c>
       <c r="C16" s="1">
         <v>500</v>
@@ -3435,7 +4359,7 @@
     </row>
     <row r="17" spans="2:6">
       <c r="B17" s="1" t="s">
-        <v>173</v>
+        <v>258</v>
       </c>
       <c r="C17" s="1">
         <v>200</v>
@@ -3447,7 +4371,7 @@
     </row>
     <row r="18" spans="2:6">
       <c r="B18" s="1" t="s">
-        <v>174</v>
+        <v>259</v>
       </c>
       <c r="C18" s="1">
         <v>120</v>
@@ -3459,7 +4383,7 @@
     </row>
     <row r="19" spans="2:6">
       <c r="B19" s="1" t="s">
-        <v>175</v>
+        <v>260</v>
       </c>
       <c r="C19" s="1">
         <v>100</v>
@@ -3471,7 +4395,7 @@
     </row>
     <row r="20" spans="2:6">
       <c r="B20" s="1" t="s">
-        <v>176</v>
+        <v>261</v>
       </c>
       <c r="C20" s="1">
         <v>300</v>
@@ -3483,7 +4407,7 @@
     </row>
     <row r="21" spans="2:6">
       <c r="B21" s="1" t="s">
-        <v>177</v>
+        <v>262</v>
       </c>
       <c r="C21" s="1">
         <v>260</v>
@@ -3495,10 +4419,10 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>178</v>
+        <v>263</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>179</v>
+        <v>264</v>
       </c>
       <c r="C22" s="1">
         <v>1.2</v>
@@ -3514,7 +4438,7 @@
     </row>
     <row r="23" spans="2:6">
       <c r="B23" s="1" t="s">
-        <v>180</v>
+        <v>265</v>
       </c>
       <c r="C23" s="1">
         <v>1.5</v>
@@ -3526,7 +4450,7 @@
     </row>
     <row r="24" spans="2:6">
       <c r="B24" s="1" t="s">
-        <v>181</v>
+        <v>266</v>
       </c>
       <c r="C24" s="1">
         <v>1.6</v>
@@ -3538,7 +4462,7 @@
     </row>
     <row r="25" spans="2:6">
       <c r="B25" s="1" t="s">
-        <v>182</v>
+        <v>267</v>
       </c>
       <c r="C25" s="1">
         <v>1.4</v>
@@ -3550,7 +4474,7 @@
     </row>
     <row r="26" spans="2:6">
       <c r="B26" s="1" t="s">
-        <v>183</v>
+        <v>268</v>
       </c>
       <c r="C26" s="1">
         <v>1</v>
@@ -3562,13 +4486,13 @@
     </row>
     <row r="27" spans="2:6">
       <c r="B27" s="1" t="s">
-        <v>184</v>
+        <v>269</v>
       </c>
       <c r="C27" s="1">
         <v>2</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>185</v>
+        <v>270</v>
       </c>
       <c r="F27" s="1">
         <v>1.8</v>
@@ -3582,56 +4506,56 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>186</v>
+        <v>271</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>187</v>
+        <v>272</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>188</v>
+        <v>273</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>186</v>
+        <v>271</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>187</v>
+        <v>272</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>189</v>
+        <v>274</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>190</v>
+        <v>275</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>191</v>
+        <v>276</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>192</v>
+        <v>277</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>193</v>
+        <v>278</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>194</v>
+        <v>279</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>195</v>
+        <v>280</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="23" t="s">
-        <v>196</v>
+        <v>281</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>197</v>
+        <v>282</v>
       </c>
       <c r="D40" s="1">
         <f>(C15+C16+C17+C18+C19+C20+C21)*(C22+C23+C24+C25+C26+C27)</f>
@@ -3640,7 +4564,7 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>198</v>
+        <v>283</v>
       </c>
       <c r="D41" s="1">
         <f>240/4</f>
@@ -3649,7 +4573,7 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>199</v>
+        <v>284</v>
       </c>
       <c r="D42" s="1">
         <f>D40/60</f>
@@ -3658,12 +4582,12 @@
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="1" t="s">
-        <v>200</v>
+        <v>285</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>201</v>
+        <v>286</v>
       </c>
       <c r="D44" s="1">
         <f>D40/42</f>
@@ -3672,7 +4596,7 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>202</v>
+        <v>287</v>
       </c>
       <c r="D45" s="1">
         <f>300/400</f>
@@ -3687,45 +4611,45 @@
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
-        <v>203</v>
+        <v>288</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>204</v>
+        <v>289</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>205</v>
+        <v>290</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>206</v>
+        <v>291</v>
       </c>
     </row>
     <row r="49" spans="2:4">
       <c r="B49" s="1" t="s">
-        <v>207</v>
+        <v>292</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>208</v>
+        <v>293</v>
       </c>
     </row>
     <row r="50" spans="2:5">
       <c r="B50" s="1" t="s">
-        <v>209</v>
+        <v>294</v>
       </c>
       <c r="D50" s="24" t="s">
-        <v>210</v>
+        <v>295</v>
       </c>
       <c r="E50" s="24" t="s">
-        <v>211</v>
+        <v>296</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>212</v>
+        <v>297</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>213</v>
+        <v>298</v>
       </c>
       <c r="D51" s="1">
         <f>D40/125</f>
@@ -3734,7 +4658,7 @@
     </row>
     <row r="52" spans="3:4">
       <c r="C52" s="1" t="s">
-        <v>214</v>
+        <v>299</v>
       </c>
       <c r="D52" s="1">
         <f>D51/400</f>
@@ -3749,35 +4673,35 @@
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="1" t="s">
-        <v>215</v>
+        <v>300</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>216</v>
+        <v>301</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>217</v>
+        <v>302</v>
       </c>
     </row>
     <row r="56" spans="2:2">
       <c r="B56" s="1" t="s">
-        <v>218</v>
+        <v>303</v>
       </c>
     </row>
     <row r="57" spans="2:2">
       <c r="B57" s="1" t="s">
-        <v>219</v>
+        <v>304</v>
       </c>
     </row>
     <row r="58" spans="2:2">
       <c r="B58" s="1" t="s">
-        <v>220</v>
+        <v>305</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>221</v>
+        <v>306</v>
       </c>
       <c r="B59" s="1">
         <f>G15*G22</f>
@@ -3786,14 +4710,14 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="1" t="s">
-        <v>222</v>
+        <v>307</v>
       </c>
       <c r="B60" s="25">
         <f>B59/125</f>
         <v>102.992</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>223</v>
+        <v>308</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -3804,159 +4728,171 @@
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="1" t="s">
-        <v>224</v>
+        <v>309</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="1" t="s">
-        <v>225</v>
+        <v>310</v>
       </c>
     </row>
     <row r="65" spans="2:2">
       <c r="B65" s="1" t="s">
-        <v>226</v>
+        <v>311</v>
       </c>
     </row>
     <row r="66" spans="3:3">
       <c r="C66" s="1" t="s">
-        <v>227</v>
+        <v>312</v>
       </c>
     </row>
     <row r="67" spans="3:3">
       <c r="C67" s="1" t="s">
-        <v>228</v>
+        <v>313</v>
       </c>
     </row>
     <row r="68" spans="2:2">
       <c r="B68" s="1" t="s">
-        <v>229</v>
+        <v>314</v>
       </c>
     </row>
     <row r="69" spans="3:3">
       <c r="C69" s="1" t="s">
-        <v>230</v>
+        <v>315</v>
       </c>
     </row>
     <row r="70" spans="3:3">
       <c r="C70" s="1" t="s">
-        <v>231</v>
+        <v>316</v>
       </c>
     </row>
     <row r="71" spans="3:4">
       <c r="C71" s="1" t="s">
-        <v>232</v>
+        <v>317</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>233</v>
+        <v>318</v>
       </c>
     </row>
     <row r="72" spans="4:4">
       <c r="D72" s="26" t="s">
-        <v>234</v>
+        <v>319</v>
       </c>
     </row>
     <row r="73" spans="4:4">
       <c r="D73" s="1" t="s">
-        <v>235</v>
+        <v>320</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="1" t="s">
-        <v>236</v>
+        <v>321</v>
       </c>
     </row>
     <row r="75" spans="2:2">
       <c r="B75" s="1" t="s">
-        <v>237</v>
+        <v>322</v>
       </c>
     </row>
     <row r="76" spans="3:3">
       <c r="C76" s="1" t="s">
-        <v>238</v>
+        <v>323</v>
       </c>
     </row>
     <row r="77" spans="3:3">
       <c r="C77" s="1" t="s">
-        <v>239</v>
+        <v>324</v>
       </c>
     </row>
     <row r="78" spans="3:3">
       <c r="C78" s="1" t="s">
-        <v>240</v>
+        <v>325</v>
       </c>
     </row>
     <row r="79" spans="2:2">
       <c r="B79" s="1" t="s">
-        <v>241</v>
+        <v>326</v>
       </c>
     </row>
     <row r="80" spans="3:3">
       <c r="C80" s="1" t="s">
-        <v>242</v>
+        <v>327</v>
       </c>
     </row>
     <row r="82" spans="2:2">
       <c r="B82" s="24" t="s">
-        <v>243</v>
+        <v>328</v>
       </c>
     </row>
     <row r="83" spans="2:2">
       <c r="B83" s="1" t="s">
-        <v>244</v>
+        <v>329</v>
       </c>
     </row>
     <row r="84" spans="2:2">
       <c r="B84" s="1" t="s">
-        <v>245</v>
+        <v>330</v>
       </c>
     </row>
     <row r="85" spans="3:3">
       <c r="C85" s="1" t="s">
-        <v>246</v>
+        <v>331</v>
       </c>
     </row>
     <row r="87" spans="1:4">
-      <c r="A87" s="27"/>
-      <c r="B87" s="27"/>
-      <c r="C87" s="27"/>
-      <c r="D87" s="27"/>
+      <c r="A87" s="12"/>
+      <c r="B87" s="12"/>
+      <c r="C87" s="12"/>
+      <c r="D87" s="12"/>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" s="1" t="s">
-        <v>247</v>
+        <v>332</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="1" t="s">
-        <v>248</v>
+        <v>333</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="1" t="s">
-        <v>249</v>
+        <v>334</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" s="1" t="s">
-        <v>250</v>
+        <v>335</v>
       </c>
     </row>
     <row r="92" spans="2:2">
       <c r="B92" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="27"/>
+      <c r="B97" s="27"/>
+      <c r="C97" s="27"/>
+      <c r="D97" s="27"/>
+    </row>
+    <row r="98" spans="1:3">
       <c r="A98" s="1" t="s">
-        <v>252</v>
+        <v>337</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="99" spans="2:2">
-      <c r="B99" s="1" t="s">
-        <v>254</v>
+        <v>338</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="100" spans="2:3">
+      <c r="B100" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>341</v>
       </c>
     </row>
   </sheetData>
@@ -4034,10 +4970,10 @@
         <v>0</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>255</v>
+        <v>342</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>256</v>
+        <v>343</v>
       </c>
       <c r="J1" s="17" t="s">
         <v>0</v>
@@ -4046,52 +4982,52 @@
         <v>33</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>257</v>
+        <v>344</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>258</v>
+        <v>345</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>259</v>
+        <v>346</v>
       </c>
       <c r="O1" s="7" t="s">
-        <v>260</v>
+        <v>347</v>
       </c>
       <c r="P1" s="7" t="s">
-        <v>261</v>
+        <v>348</v>
       </c>
       <c r="Q1" s="7" t="s">
-        <v>262</v>
+        <v>349</v>
       </c>
       <c r="R1" s="7" t="s">
-        <v>263</v>
+        <v>350</v>
       </c>
       <c r="S1" s="7" t="s">
-        <v>264</v>
+        <v>351</v>
       </c>
       <c r="T1" s="7" t="s">
-        <v>265</v>
+        <v>352</v>
       </c>
       <c r="U1" s="7" t="s">
-        <v>266</v>
+        <v>353</v>
       </c>
       <c r="V1" s="7" t="s">
-        <v>267</v>
+        <v>354</v>
       </c>
       <c r="W1" s="7" t="s">
-        <v>268</v>
+        <v>355</v>
       </c>
       <c r="X1" s="8" t="s">
-        <v>269</v>
+        <v>356</v>
       </c>
       <c r="Y1" s="20" t="s">
-        <v>270</v>
+        <v>357</v>
       </c>
       <c r="Z1" s="20" t="s">
-        <v>271</v>
+        <v>358</v>
       </c>
       <c r="AA1" s="20" t="s">
-        <v>272</v>
+        <v>359</v>
       </c>
     </row>
     <row r="2" spans="1:27">
@@ -4200,64 +5136,64 @@
         <v>76</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>273</v>
+        <v>360</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>274</v>
+        <v>361</v>
       </c>
       <c r="J3" s="18" t="s">
         <v>103</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>275</v>
+        <v>362</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>276</v>
+        <v>363</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>277</v>
+        <v>364</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>278</v>
+        <v>365</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>279</v>
+        <v>366</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>280</v>
+        <v>367</v>
       </c>
       <c r="Q3" s="7" t="s">
-        <v>281</v>
+        <v>368</v>
       </c>
       <c r="R3" s="7" t="s">
-        <v>282</v>
+        <v>369</v>
       </c>
       <c r="S3" s="7" t="s">
-        <v>283</v>
+        <v>370</v>
       </c>
       <c r="T3" s="7" t="s">
-        <v>284</v>
+        <v>371</v>
       </c>
       <c r="U3" s="7" t="s">
-        <v>285</v>
+        <v>372</v>
       </c>
       <c r="V3" s="7" t="s">
-        <v>286</v>
+        <v>373</v>
       </c>
       <c r="W3" s="7" t="s">
-        <v>287</v>
+        <v>374</v>
       </c>
       <c r="X3" s="8" t="s">
-        <v>288</v>
+        <v>375</v>
       </c>
       <c r="Y3" s="20" t="s">
-        <v>289</v>
+        <v>376</v>
       </c>
       <c r="Z3" s="20" t="s">
         <v>95</v>
       </c>
       <c r="AA3" s="20" t="s">
-        <v>290</v>
+        <v>377</v>
       </c>
     </row>
     <row r="4" spans="2:27">
@@ -4265,13 +5201,13 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>291</v>
+        <v>378</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>292</v>
+        <v>379</v>
       </c>
       <c r="F4" s="2" t="b">
         <v>1</v>
@@ -4299,7 +5235,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>293</v>
+        <v>380</v>
       </c>
       <c r="Q4" s="1">
         <v>0.5</v>
@@ -4332,7 +5268,7 @@
         <v>1</v>
       </c>
       <c r="AA4" s="1" t="s">
-        <v>294</v>
+        <v>381</v>
       </c>
     </row>
     <row r="5" spans="2:27">
@@ -4340,13 +5276,13 @@
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>295</v>
+        <v>382</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>296</v>
+        <v>383</v>
       </c>
       <c r="F5" s="2" t="b">
         <v>1</v>
@@ -4374,7 +5310,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>297</v>
+        <v>384</v>
       </c>
       <c r="Q5" s="1">
         <v>0</v>
@@ -4407,7 +5343,7 @@
         <v>1</v>
       </c>
       <c r="AA5" s="1" t="s">
-        <v>298</v>
+        <v>385</v>
       </c>
     </row>
     <row r="6" spans="2:27">
@@ -4415,13 +5351,13 @@
         <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>299</v>
+        <v>386</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>300</v>
+        <v>387</v>
       </c>
       <c r="F6" s="2" t="b">
         <v>1</v>
@@ -4449,7 +5385,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>293</v>
+        <v>380</v>
       </c>
       <c r="Q6" s="1">
         <v>0</v>
@@ -4482,7 +5418,7 @@
         <v>0</v>
       </c>
       <c r="AA6" s="1" t="s">
-        <v>301</v>
+        <v>388</v>
       </c>
     </row>
     <row r="7" spans="2:27">
@@ -4490,13 +5426,13 @@
         <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>302</v>
+        <v>389</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>303</v>
+        <v>390</v>
       </c>
       <c r="F7" s="2" t="b">
         <v>0</v>
@@ -4524,7 +5460,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>293</v>
+        <v>380</v>
       </c>
       <c r="Q7" s="1">
         <v>0</v>
@@ -4557,7 +5493,7 @@
         <v>-20</v>
       </c>
       <c r="AA7" s="1" t="s">
-        <v>304</v>
+        <v>391</v>
       </c>
     </row>
     <row r="8" spans="2:27">
@@ -4565,13 +5501,13 @@
         <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>305</v>
+        <v>392</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>306</v>
+        <v>393</v>
       </c>
       <c r="F8" s="2" t="b">
         <v>1</v>
@@ -4599,7 +5535,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>293</v>
+        <v>380</v>
       </c>
       <c r="Q8" s="1">
         <v>0</v>
@@ -4632,7 +5568,7 @@
         <v>0</v>
       </c>
       <c r="AA8" s="1" t="s">
-        <v>307</v>
+        <v>394</v>
       </c>
     </row>
     <row r="9" spans="2:27">
@@ -4640,13 +5576,13 @@
         <v>6</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>308</v>
+        <v>395</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>309</v>
+        <v>396</v>
       </c>
       <c r="F9" s="2" t="b">
         <v>1</v>
@@ -4674,7 +5610,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>293</v>
+        <v>380</v>
       </c>
       <c r="Q9" s="1">
         <v>0</v>
@@ -4707,7 +5643,7 @@
         <v>0</v>
       </c>
       <c r="AA9" s="1" t="s">
-        <v>310</v>
+        <v>397</v>
       </c>
     </row>
     <row r="10" spans="2:27">
@@ -4715,13 +5651,13 @@
         <v>7</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>311</v>
+        <v>398</v>
       </c>
       <c r="D10" s="1">
         <v>1</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>312</v>
+        <v>399</v>
       </c>
       <c r="F10" s="2" t="b">
         <v>1</v>
@@ -4749,7 +5685,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>293</v>
+        <v>380</v>
       </c>
       <c r="Q10" s="1">
         <v>0</v>
@@ -4782,7 +5718,7 @@
         <v>0</v>
       </c>
       <c r="AA10" s="1" t="s">
-        <v>313</v>
+        <v>400</v>
       </c>
     </row>
     <row r="11" spans="2:27">
@@ -4790,13 +5726,13 @@
         <v>8</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>314</v>
+        <v>401</v>
       </c>
       <c r="D11" s="1">
         <v>1</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>315</v>
+        <v>402</v>
       </c>
       <c r="F11" s="2" t="b">
         <v>1</v>
@@ -4824,7 +5760,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>293</v>
+        <v>380</v>
       </c>
       <c r="Q11" s="1">
         <v>0</v>
@@ -4857,7 +5793,7 @@
         <v>100</v>
       </c>
       <c r="AA11" s="1" t="s">
-        <v>316</v>
+        <v>403</v>
       </c>
     </row>
     <row r="12" spans="2:26">
@@ -4865,13 +5801,13 @@
         <v>9</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>317</v>
+        <v>404</v>
       </c>
       <c r="D12" s="1">
         <v>1</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>318</v>
+        <v>405</v>
       </c>
       <c r="F12" s="2" t="b">
         <v>1</v>
@@ -4899,7 +5835,7 @@
         <v>0.2</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>293</v>
+        <v>380</v>
       </c>
       <c r="Q12" s="1">
         <v>0</v>
@@ -4937,13 +5873,13 @@
         <v>10</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>319</v>
+        <v>406</v>
       </c>
       <c r="D13" s="1">
         <v>1</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>320</v>
+        <v>407</v>
       </c>
       <c r="F13" s="2" t="b">
         <v>0</v>
@@ -4971,7 +5907,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>293</v>
+        <v>380</v>
       </c>
       <c r="Q13" s="1">
         <v>0</v>
@@ -5009,13 +5945,13 @@
         <v>11</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>321</v>
+        <v>408</v>
       </c>
       <c r="D14" s="1">
         <v>1</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>322</v>
+        <v>409</v>
       </c>
       <c r="F14" s="2" t="b">
         <v>1</v>
@@ -5043,7 +5979,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>293</v>
+        <v>380</v>
       </c>
       <c r="Q14" s="1">
         <v>0</v>
@@ -5081,13 +6017,13 @@
         <v>12</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>323</v>
+        <v>410</v>
       </c>
       <c r="D15" s="1">
         <v>2</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>324</v>
+        <v>411</v>
       </c>
       <c r="F15" s="2" t="b">
         <v>1</v>
@@ -5115,7 +6051,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>293</v>
+        <v>380</v>
       </c>
       <c r="Q15" s="1">
         <v>0</v>
@@ -5153,13 +6089,13 @@
         <v>13</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>325</v>
+        <v>412</v>
       </c>
       <c r="D16" s="1">
         <v>2</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>326</v>
+        <v>413</v>
       </c>
       <c r="F16" s="14"/>
       <c r="G16" s="15"/>
@@ -5194,13 +6130,13 @@
         <v>14</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>327</v>
+        <v>414</v>
       </c>
       <c r="D17" s="1">
         <v>2</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>328</v>
+        <v>415</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="3"/>
@@ -5219,13 +6155,13 @@
         <v>15</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>329</v>
+        <v>416</v>
       </c>
       <c r="D18" s="1">
         <v>2</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>330</v>
+        <v>417</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="3"/>
@@ -5244,13 +6180,13 @@
         <v>16</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>331</v>
+        <v>418</v>
       </c>
       <c r="D19" s="1">
         <v>2</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>332</v>
+        <v>419</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="3"/>
@@ -5269,13 +6205,13 @@
         <v>17</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>333</v>
+        <v>420</v>
       </c>
       <c r="D20" s="1">
         <v>2</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>334</v>
+        <v>421</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="3"/>
@@ -5294,13 +6230,13 @@
         <v>18</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>335</v>
+        <v>422</v>
       </c>
       <c r="D21" s="1">
         <v>3</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>336</v>
+        <v>423</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="3"/>
@@ -5319,13 +6255,13 @@
         <v>19</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>337</v>
+        <v>424</v>
       </c>
       <c r="D22" s="1">
         <v>3</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>338</v>
+        <v>425</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="3"/>
@@ -5344,13 +6280,13 @@
         <v>20</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>339</v>
+        <v>426</v>
       </c>
       <c r="D23" s="1">
         <v>3</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>340</v>
+        <v>427</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="3"/>
@@ -5369,13 +6305,13 @@
         <v>21</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>341</v>
+        <v>428</v>
       </c>
       <c r="D24" s="1">
         <v>3</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>342</v>
+        <v>429</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="3"/>
@@ -5394,13 +6330,13 @@
         <v>22</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>343</v>
+        <v>430</v>
       </c>
       <c r="D25" s="1">
         <v>3</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>344</v>
+        <v>431</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="3"/>
@@ -5414,7 +6350,7 @@
         <v>1</v>
       </c>
       <c r="AA25" s="1" t="s">
-        <v>345</v>
+        <v>432</v>
       </c>
     </row>
     <row r="26" spans="2:26">
@@ -5422,13 +6358,13 @@
         <v>23</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>346</v>
+        <v>433</v>
       </c>
       <c r="D26" s="1">
         <v>3</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>347</v>
+        <v>434</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="3"/>
@@ -5447,13 +6383,13 @@
         <v>24</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>348</v>
+        <v>435</v>
       </c>
       <c r="D27" s="1">
         <v>3</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>349</v>
+        <v>436</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="3"/>
@@ -5472,13 +6408,13 @@
         <v>25</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>350</v>
+        <v>437</v>
       </c>
       <c r="D28" s="1">
         <v>3</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>351</v>
+        <v>438</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="3"/>
@@ -5497,13 +6433,13 @@
         <v>26</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>352</v>
+        <v>439</v>
       </c>
       <c r="D29" s="1">
         <v>4</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>353</v>
+        <v>440</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="3"/>
@@ -5522,13 +6458,13 @@
         <v>27</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>354</v>
+        <v>441</v>
       </c>
       <c r="D30" s="1">
         <v>4</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>355</v>
+        <v>442</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="3"/>
@@ -5547,13 +6483,13 @@
         <v>28</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>356</v>
+        <v>443</v>
       </c>
       <c r="D31" s="1">
         <v>4</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>357</v>
+        <v>444</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="3"/>
@@ -5572,13 +6508,13 @@
         <v>29</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>358</v>
+        <v>445</v>
       </c>
       <c r="D32" s="1">
         <v>4</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>359</v>
+        <v>446</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="3"/>
@@ -5592,7 +6528,7 @@
         <v>0</v>
       </c>
       <c r="AA32" s="1" t="s">
-        <v>360</v>
+        <v>447</v>
       </c>
     </row>
     <row r="33" spans="2:26">
@@ -5600,13 +6536,13 @@
         <v>30</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>361</v>
+        <v>448</v>
       </c>
       <c r="D33" s="1">
         <v>4</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>362</v>
+        <v>449</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="3"/>
@@ -5625,13 +6561,13 @@
         <v>31</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>363</v>
+        <v>450</v>
       </c>
       <c r="D34" s="1">
         <v>4</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>364</v>
+        <v>451</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="3"/>
@@ -5650,13 +6586,13 @@
         <v>32</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>365</v>
+        <v>452</v>
       </c>
       <c r="D35" s="1">
         <v>4</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>366</v>
+        <v>453</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="3"/>
@@ -5675,13 +6611,13 @@
         <v>33</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>367</v>
+        <v>454</v>
       </c>
       <c r="D36" s="1">
         <v>4</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>368</v>
+        <v>455</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="3"/>
@@ -5700,13 +6636,13 @@
         <v>34</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>369</v>
+        <v>456</v>
       </c>
       <c r="D37" s="1">
         <v>4</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>370</v>
+        <v>457</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="3"/>
@@ -5725,13 +6661,13 @@
         <v>35</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>371</v>
+        <v>458</v>
       </c>
       <c r="D38" s="1">
         <v>4</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>372</v>
+        <v>459</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="3"/>
